--- a/result summary final.xlsx
+++ b/result summary final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesong/Documents/Columbia/2023 Fall/ELEN 6885/New Repo/EE6885_FinalProject_FinancialRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C35159E8-F29F-804C-B12F-A1A9479E75F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3227D99-50C0-054B-8EF4-D1019536AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="2160" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">result!$B$2:$B$3312</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">result!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">result!$C$2:$C$3312</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">result!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">result!$D$2:$D$3312</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">result!$E$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">result!$E$2:$E$3312</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">result!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">result!$F$2:$F$3312</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -94,9 +83,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -581,7 +570,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -8058,11 +8047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8143,20 +8132,20 @@
         <v>11</v>
       </c>
       <c r="N2" s="4">
-        <f>AVERAGE(I3:I253)*252</f>
-        <v>3.6123537572154167E-3</v>
+        <f t="array" ref="N2">GEOMEAN(1+I3:I253)^252-1</f>
+        <v>-1.638826033981855E-2</v>
       </c>
       <c r="O2" s="4">
-        <f>AVERAGE(J3:J253)*252</f>
-        <v>-0.13958229860601346</v>
+        <f t="array" ref="O2">GEOMEAN(1+J3:J253)^252-1</f>
+        <v>-0.14812862714196406</v>
       </c>
       <c r="P2" s="4">
-        <f>AVERAGE(K3:K253)*252</f>
-        <v>-7.9809211798759022E-2</v>
+        <f t="array" ref="P2">GEOMEAN(1+K3:K253)^252-1</f>
+        <v>-9.4323692302390238E-2</v>
       </c>
       <c r="Q2" s="4">
-        <f>AVERAGE(L3:L253)*252</f>
-        <v>-5.7792649470210261E-2</v>
+        <f t="array" ref="Q2">GEOMEAN(1+L3:L253)^252-1</f>
+        <v>-7.4679593298031199E-2</v>
       </c>
       <c r="U2" s="1">
         <v>40182</v>
@@ -8179,7 +8168,7 @@
         <v>1005865.50499024</v>
       </c>
       <c r="F3">
-        <f>F2*(1+L3)</f>
+        <f t="shared" ref="F3:F66" si="0">F2*(1+L3)</f>
         <v>1007098.0705443631</v>
       </c>
       <c r="I3">
@@ -8195,7 +8184,7 @@
         <v>5.865504990240078E-3</v>
       </c>
       <c r="L3">
-        <f>VLOOKUP(B3,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" ref="L3:L66" si="1">VLOOKUP(B3,$U$2:$V$3312,2,FALSE)</f>
         <v>7.0980705443629997E-3</v>
       </c>
       <c r="M3" t="s">
@@ -8238,23 +8227,23 @@
         <v>995136.01383761596</v>
       </c>
       <c r="F4">
-        <f>F3*(1+L4)</f>
+        <f t="shared" si="0"/>
         <v>1001128.6784787903</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="0">C4/C3-1</f>
+        <f t="shared" ref="I4:I67" si="2">C4/C3-1</f>
         <v>-1.9302287761199244E-3</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="1">D4/D3-1</f>
+        <f t="shared" ref="J4:J67" si="3">D4/D3-1</f>
         <v>-3.3920567816867475E-3</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="2">E4/E3-1</f>
+        <f t="shared" ref="K4:K67" si="4">E4/E3-1</f>
         <v>-1.0666924255174792E-2</v>
       </c>
       <c r="L4">
-        <f>VLOOKUP(B4,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>-5.9273195333858298E-3</v>
       </c>
       <c r="M4" t="s">
@@ -8262,19 +8251,19 @@
       </c>
       <c r="N4" s="3">
         <f>N2/N3</f>
-        <v>1.7950904979287027E-2</v>
+        <v>-8.1438342949742754E-2</v>
       </c>
       <c r="O4" s="3">
         <f>O2/O3</f>
-        <v>-0.68452624633813286</v>
+        <v>-0.72643833871024333</v>
       </c>
       <c r="P4" s="3">
         <f>P2/P3</f>
-        <v>-0.40205752270255418</v>
+        <v>-0.47517760424551242</v>
       </c>
       <c r="Q4" s="3">
         <f>Q2/Q3</f>
-        <v>-0.28983098801927282</v>
+        <v>-0.37451925995541485</v>
       </c>
       <c r="U4" s="1">
         <v>40184</v>
@@ -8297,23 +8286,23 @@
         <v>990471.79758215405</v>
       </c>
       <c r="F5">
-        <f>F4*(1+L5)</f>
+        <f t="shared" si="0"/>
         <v>998371.19458299759</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.7254136987931989E-4</v>
       </c>
       <c r="J5">
+        <f t="shared" si="3"/>
+        <v>-4.6543956481457371E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>-4.6870138258537919E-3</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>-4.6543956481457371E-3</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>-4.6870138258537919E-3</v>
-      </c>
-      <c r="L5">
-        <f>VLOOKUP(B5,$U$2:$V$3312,2,FALSE)</f>
         <v>-2.7543750919040702E-3</v>
       </c>
       <c r="U5" s="1">
@@ -8337,23 +8326,23 @@
         <v>990340.36158246303</v>
       </c>
       <c r="F6">
-        <f>F5*(1+L6)</f>
+        <f t="shared" si="0"/>
         <v>1002159.5689321723</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3376329632425232E-4</v>
       </c>
       <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1.402216919990984E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-1.3270039592427896E-4</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>1.402216919990984E-3</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>-1.3270039592427896E-4</v>
-      </c>
-      <c r="L6">
-        <f>VLOOKUP(B6,$U$2:$V$3312,2,FALSE)</f>
         <v>3.7945549408172699E-3</v>
       </c>
       <c r="U6" s="1">
@@ -8377,23 +8366,23 @@
         <v>985890.75650440005</v>
       </c>
       <c r="F7">
-        <f>F6*(1+L7)</f>
+        <f t="shared" si="0"/>
         <v>998852.55028116156</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.3293910336366084E-3</v>
       </c>
       <c r="J7">
+        <f t="shared" si="3"/>
+        <v>-2.8636917939338646E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>-4.4930058903718262E-3</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>-2.8636917939338646E-3</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>-4.4930058903718262E-3</v>
-      </c>
-      <c r="L7">
-        <f>VLOOKUP(B7,$U$2:$V$3312,2,FALSE)</f>
         <v>-3.2998923061069601E-3</v>
       </c>
       <c r="U7" s="1">
@@ -8417,23 +8406,23 @@
         <v>990896.85583947902</v>
       </c>
       <c r="F8">
-        <f>F7*(1+L8)</f>
+        <f t="shared" si="0"/>
         <v>1003314.5882069324</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5484415612296871E-4</v>
       </c>
       <c r="J8">
+        <f t="shared" si="3"/>
+        <v>4.102455334158206E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>5.0777424395667126E-3</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>4.102455334158206E-3</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>5.0777424395667126E-3</v>
-      </c>
-      <c r="L8">
-        <f>VLOOKUP(B8,$U$2:$V$3312,2,FALSE)</f>
         <v>4.4671637715844904E-3</v>
       </c>
       <c r="U8" s="1">
@@ -8457,23 +8446,23 @@
         <v>991943.75265260995</v>
       </c>
       <c r="F9">
-        <f>F8*(1+L9)</f>
+        <f t="shared" si="0"/>
         <v>1003938.4419215057</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8083228084897485E-4</v>
       </c>
       <c r="J9">
+        <f t="shared" si="3"/>
+        <v>4.3534943906664569E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1.056514416168941E-3</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.3534943906664569E-3</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>1.056514416168941E-3</v>
-      </c>
-      <c r="L9">
-        <f>VLOOKUP(B9,$U$2:$V$3312,2,FALSE)</f>
         <v>6.2179272773088502E-4</v>
       </c>
       <c r="U9" s="1">
@@ -8497,23 +8486,23 @@
         <v>987113.93344384199</v>
       </c>
       <c r="F10">
-        <f>F9*(1+L10)</f>
+        <f t="shared" si="0"/>
         <v>1000446.1227209547</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.3817368539297279E-3</v>
       </c>
       <c r="J10">
+        <f t="shared" si="3"/>
+        <v>-7.9559441486740656E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>-4.8690454432041008E-3</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>-7.9559441486740656E-3</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>-4.8690454432041008E-3</v>
-      </c>
-      <c r="L10">
-        <f>VLOOKUP(B10,$U$2:$V$3312,2,FALSE)</f>
         <v>-3.4786188621951999E-3</v>
       </c>
       <c r="U10" s="1">
@@ -8537,23 +8526,23 @@
         <v>981597.67878258799</v>
       </c>
       <c r="F11">
-        <f>F10*(1+L11)</f>
+        <f t="shared" si="0"/>
         <v>996491.62746002071</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3381339531486347E-3</v>
       </c>
       <c r="J11">
+        <f t="shared" si="3"/>
+        <v>7.3934385314577966E-4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-5.5882654214077787E-3</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>7.3934385314577966E-4</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>-5.5882654214077787E-3</v>
-      </c>
-      <c r="L11">
-        <f>VLOOKUP(B11,$U$2:$V$3312,2,FALSE)</f>
         <v>-3.9527318574425303E-3</v>
       </c>
       <c r="U11" s="1">
@@ -8577,23 +8566,23 @@
         <v>966746.26499141799</v>
       </c>
       <c r="F12">
-        <f>F11*(1+L12)</f>
+        <f t="shared" si="0"/>
         <v>984080.85127681668</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.7562138096753941E-3</v>
       </c>
       <c r="J12">
+        <f t="shared" si="3"/>
+        <v>-1.2770138881586179E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>-1.5129837928701373E-2</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>-1.2770138881586179E-2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>-1.5129837928701373E-2</v>
-      </c>
-      <c r="L12">
-        <f>VLOOKUP(B12,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.24544711076381E-2</v>
       </c>
       <c r="U12" s="1">
@@ -8617,23 +8606,23 @@
         <v>957457.76510753203</v>
       </c>
       <c r="F13">
-        <f>F12*(1+L13)</f>
+        <f t="shared" si="0"/>
         <v>975492.23908801726</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0877266842357791E-2</v>
       </c>
       <c r="J13">
+        <f t="shared" si="3"/>
+        <v>-7.6703726372340242E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>-9.6080018307269643E-3</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>-7.6703726372340242E-3</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>-9.6080018307269643E-3</v>
-      </c>
-      <c r="L13">
-        <f>VLOOKUP(B13,$U$2:$V$3312,2,FALSE)</f>
         <v>-8.7275473124551004E-3</v>
       </c>
       <c r="U13" s="1">
@@ -8657,23 +8646,23 @@
         <v>948895.31298797997</v>
       </c>
       <c r="F14">
-        <f>F13*(1+L14)</f>
+        <f t="shared" si="0"/>
         <v>966959.46642562444</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.5599104815323708E-3</v>
       </c>
       <c r="J14">
+        <f t="shared" si="3"/>
+        <v>-9.2894292491401131E-3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>-8.9429032084672455E-3</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>-9.2894292491401131E-3</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>-8.9429032084672455E-3</v>
-      </c>
-      <c r="L14">
-        <f>VLOOKUP(B14,$U$2:$V$3312,2,FALSE)</f>
         <v>-8.7471456158073994E-3</v>
       </c>
       <c r="U14" s="1">
@@ -8697,23 +8686,23 @@
         <v>936594.67582768097</v>
       </c>
       <c r="F15">
-        <f>F14*(1+L15)</f>
+        <f t="shared" si="0"/>
         <v>954221.7648758674</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3436254955285998E-2</v>
       </c>
       <c r="J15">
+        <f t="shared" si="3"/>
+        <v>-1.2669711309208465E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>-1.2963112992481207E-2</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
-        <v>-1.2669711309208465E-2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>-1.2963112992481207E-2</v>
-      </c>
-      <c r="L15">
-        <f>VLOOKUP(B15,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.3172942602074101E-2</v>
       </c>
       <c r="U15" s="1">
@@ -8737,23 +8726,23 @@
         <v>939304.22202113504</v>
       </c>
       <c r="F16">
-        <f>F15*(1+L16)</f>
+        <f t="shared" si="0"/>
         <v>955330.6065575165</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.2996600506832738E-3</v>
       </c>
       <c r="J16">
+        <f t="shared" si="3"/>
+        <v>-1.568452965643341E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>2.8929762931437786E-3</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>-1.568452965643341E-3</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>2.8929762931437786E-3</v>
-      </c>
-      <c r="L16">
-        <f>VLOOKUP(B16,$U$2:$V$3312,2,FALSE)</f>
         <v>1.1620377175041901E-3</v>
       </c>
       <c r="U16" s="1">
@@ -8777,23 +8766,23 @@
         <v>937479.17283940699</v>
       </c>
       <c r="F17">
-        <f>F16*(1+L17)</f>
+        <f t="shared" si="0"/>
         <v>955516.74200109055</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.742442022480307E-3</v>
       </c>
       <c r="J17">
+        <f t="shared" si="3"/>
+        <v>-7.8097834346679829E-3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>-1.9429798556649391E-3</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
-        <v>-7.8097834346679829E-3</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>-1.9429798556649391E-3</v>
-      </c>
-      <c r="L17">
-        <f>VLOOKUP(B17,$U$2:$V$3312,2,FALSE)</f>
         <v>1.9483877340101499E-4</v>
       </c>
       <c r="U17" s="1">
@@ -8817,23 +8806,23 @@
         <v>933935.63266253995</v>
       </c>
       <c r="F18">
-        <f>F17*(1+L18)</f>
+        <f t="shared" si="0"/>
         <v>949706.92770282947</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.7692771919123356E-3</v>
       </c>
       <c r="J18">
+        <f t="shared" si="3"/>
+        <v>-5.7836801100673574E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>-3.7798601606631177E-3</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
-        <v>-5.7836801100673574E-3</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>-3.7798601606631177E-3</v>
-      </c>
-      <c r="L18">
-        <f>VLOOKUP(B18,$U$2:$V$3312,2,FALSE)</f>
         <v>-6.0802851932179299E-3</v>
       </c>
       <c r="U18" s="1">
@@ -8857,23 +8846,23 @@
         <v>933735.86275561806</v>
       </c>
       <c r="F19">
-        <f>F18*(1+L19)</f>
+        <f t="shared" si="0"/>
         <v>947414.85534470691</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.9914879187277208E-3</v>
       </c>
       <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.2913251133586101E-3</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>-2.1390115114505726E-4</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
-        <v>1.2913251133586101E-3</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>-2.1390115114505726E-4</v>
-      </c>
-      <c r="L19">
-        <f>VLOOKUP(B19,$U$2:$V$3312,2,FALSE)</f>
         <v>-2.4134522885567301E-3</v>
       </c>
       <c r="U19" s="1">
@@ -8897,23 +8886,23 @@
         <v>949170.78405150597</v>
       </c>
       <c r="F20">
-        <f>F19*(1+L20)</f>
+        <f t="shared" si="0"/>
         <v>961720.64575483196</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0930194419858168E-3</v>
       </c>
       <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.4167846793932126E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>1.6530286467028033E-2</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="1"/>
-        <v>1.4167846793932126E-2</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>1.6530286467028033E-2</v>
-      </c>
-      <c r="L20">
-        <f>VLOOKUP(B20,$U$2:$V$3312,2,FALSE)</f>
         <v>1.50998164419958E-2</v>
       </c>
       <c r="U20" s="1">
@@ -8937,23 +8926,23 @@
         <v>960278.88775888795</v>
       </c>
       <c r="F21">
-        <f>F20*(1+L21)</f>
+        <f t="shared" si="0"/>
         <v>972145.2720070997</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.9995380950768098E-4</v>
       </c>
       <c r="J21">
+        <f t="shared" si="3"/>
+        <v>-9.9998940245371593E-4</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>1.1702955773635892E-2</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
-        <v>-9.9998940245371593E-4</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>1.1702955773635892E-2</v>
-      </c>
-      <c r="L21">
-        <f>VLOOKUP(B21,$U$2:$V$3312,2,FALSE)</f>
         <v>1.08395575142153E-2</v>
       </c>
       <c r="U21" s="1">
@@ -8977,23 +8966,23 @@
         <v>967751.30728636903</v>
       </c>
       <c r="F22">
-        <f>F21*(1+L22)</f>
+        <f t="shared" si="0"/>
         <v>979102.90257481241</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4654177239709121E-4</v>
       </c>
       <c r="J22">
+        <f t="shared" si="3"/>
+        <v>2.705742585762394E-6</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>7.7815097496523045E-3</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="1"/>
-        <v>2.705742585762394E-6</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>7.7815097496523045E-3</v>
-      </c>
-      <c r="L22">
-        <f>VLOOKUP(B22,$U$2:$V$3312,2,FALSE)</f>
         <v>7.1569864793437302E-3</v>
       </c>
       <c r="U22" s="1">
@@ -9017,23 +9006,23 @@
         <v>973876.48112409201</v>
       </c>
       <c r="F23">
-        <f>F22*(1+L23)</f>
+        <f t="shared" si="0"/>
         <v>985027.91465558903</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3005952160185519E-3</v>
       </c>
       <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.8269305246521039E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>6.3292850049443405E-3</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="1"/>
-        <v>1.8269305246521039E-3</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>6.3292850049443405E-3</v>
-      </c>
-      <c r="L23">
-        <f>VLOOKUP(B23,$U$2:$V$3312,2,FALSE)</f>
         <v>6.0514702440317104E-3</v>
       </c>
       <c r="U23" s="1">
@@ -9057,23 +9046,23 @@
         <v>959713.10436135798</v>
       </c>
       <c r="F24">
-        <f>F23*(1+L24)</f>
+        <f t="shared" si="0"/>
         <v>970573.46653123316</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.1049139692241878E-3</v>
       </c>
       <c r="J24">
+        <f t="shared" si="3"/>
+        <v>-1.5347515625292463E-3</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>-1.4543298906228852E-2</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="1"/>
-        <v>-1.5347515625292463E-3</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>-1.4543298906228852E-2</v>
-      </c>
-      <c r="L24">
-        <f>VLOOKUP(B24,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.46741507619201E-2</v>
       </c>
       <c r="U24" s="1">
@@ -9097,23 +9086,23 @@
         <v>959127.56819376897</v>
       </c>
       <c r="F25">
-        <f>F24*(1+L25)</f>
+        <f t="shared" si="0"/>
         <v>969418.36925437092</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.562292503179302E-4</v>
       </c>
       <c r="J25">
+        <f t="shared" si="3"/>
+        <v>-6.2296056340627182E-4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>-6.1011584079462278E-4</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="1"/>
-        <v>-6.2296056340627182E-4</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>-6.1011584079462278E-4</v>
-      </c>
-      <c r="L25">
-        <f>VLOOKUP(B25,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.1901183338449599E-3</v>
       </c>
       <c r="U25" s="1">
@@ -9137,23 +9126,23 @@
         <v>959165.57892966596</v>
       </c>
       <c r="F26">
-        <f>F25*(1+L26)</f>
+        <f t="shared" si="0"/>
         <v>970268.41833889438</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4281595431040479E-4</v>
       </c>
       <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1.0458721040507157E-4</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>3.9630532118417605E-5</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="1"/>
-        <v>1.0458721040507157E-4</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>3.9630532118417605E-5</v>
-      </c>
-      <c r="L26">
-        <f>VLOOKUP(B26,$U$2:$V$3312,2,FALSE)</f>
         <v>8.7686504762360395E-4</v>
       </c>
       <c r="U26" s="1">
@@ -9177,23 +9166,23 @@
         <v>969324.16164172196</v>
       </c>
       <c r="F27">
-        <f>F26*(1+L27)</f>
+        <f t="shared" si="0"/>
         <v>978325.43729117862</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4717603962359771E-3</v>
       </c>
       <c r="J27">
+        <f t="shared" si="3"/>
+        <v>7.8392822115436189E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1.0591062622776759E-2</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="1"/>
-        <v>7.8392822115436189E-3</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>1.0591062622776759E-2</v>
-      </c>
-      <c r="L27">
-        <f>VLOOKUP(B27,$U$2:$V$3312,2,FALSE)</f>
         <v>8.3039072487570004E-3</v>
       </c>
       <c r="U27" s="1">
@@ -9217,23 +9206,23 @@
         <v>977668.47911678394</v>
       </c>
       <c r="F28">
-        <f>F27*(1+L28)</f>
+        <f t="shared" si="0"/>
         <v>986258.99643238145</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0135651980592879E-3</v>
       </c>
       <c r="J28">
+        <f t="shared" si="3"/>
+        <v>8.5117490791133399E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>8.6083869620348086E-3</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="1"/>
-        <v>8.5117490791133399E-3</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>8.6083869620348086E-3</v>
-      </c>
-      <c r="L28">
-        <f>VLOOKUP(B28,$U$2:$V$3312,2,FALSE)</f>
         <v>8.1093252191923992E-3</v>
       </c>
       <c r="U28" s="1">
@@ -9257,23 +9246,23 @@
         <v>963278.21242769505</v>
       </c>
       <c r="F29">
-        <f>F28*(1+L29)</f>
+        <f t="shared" si="0"/>
         <v>974066.05402657227</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.9995645762149756E-3</v>
       </c>
       <c r="J29">
+        <f t="shared" si="3"/>
+        <v>-1.1095033365756901E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>-1.4718963530550688E-2</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="1"/>
-        <v>-1.1095033365756901E-2</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>-1.4718963530550688E-2</v>
-      </c>
-      <c r="L29">
-        <f>VLOOKUP(B29,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.2362819958971301E-2</v>
       </c>
       <c r="U29" s="1">
@@ -9297,23 +9286,23 @@
         <v>949514.90933745401</v>
       </c>
       <c r="F30">
-        <f>F29*(1+L30)</f>
+        <f t="shared" si="0"/>
         <v>961430.26154361747</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.592870080595171E-3</v>
       </c>
       <c r="J30">
+        <f t="shared" si="3"/>
+        <v>-1.6468872248953548E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>-1.4287983380786962E-2</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="1"/>
-        <v>-1.6468872248953548E-2</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>-1.4287983380786962E-2</v>
-      </c>
-      <c r="L30">
-        <f>VLOOKUP(B30,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.2972213158154101E-2</v>
       </c>
       <c r="U30" s="1">
@@ -9337,23 +9326,23 @@
         <v>944816.63290010695</v>
       </c>
       <c r="F31">
-        <f>F30*(1+L31)</f>
+        <f t="shared" si="0"/>
         <v>956613.98808478424</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.2467390696380143E-3</v>
       </c>
       <c r="J31">
+        <f t="shared" si="3"/>
+        <v>-6.2220788127836935E-3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>-4.9480807422238593E-3</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="1"/>
-        <v>-6.2220788127836935E-3</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>-4.9480807422238593E-3</v>
-      </c>
-      <c r="L31">
-        <f>VLOOKUP(B31,$U$2:$V$3312,2,FALSE)</f>
         <v>-5.0094881048371297E-3</v>
       </c>
       <c r="U31" s="1">
@@ -9377,23 +9366,23 @@
         <v>956369.65440660203</v>
       </c>
       <c r="F32">
-        <f>F31*(1+L32)</f>
+        <f t="shared" si="0"/>
         <v>968764.38708622206</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.8109532101473551E-3</v>
       </c>
       <c r="J32">
+        <f t="shared" si="3"/>
+        <v>1.6851311408570213E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>1.2227792255342873E-2</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.6851311408570213E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>1.2227792255342873E-2</v>
-      </c>
-      <c r="L32">
-        <f>VLOOKUP(B32,$U$2:$V$3312,2,FALSE)</f>
         <v>1.27014649093349E-2</v>
       </c>
       <c r="U32" s="1">
@@ -9417,23 +9406,23 @@
         <v>954878.05333781696</v>
       </c>
       <c r="F33">
-        <f>F32*(1+L33)</f>
+        <f t="shared" si="0"/>
         <v>967371.89592223219</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6304650704651635E-4</v>
       </c>
       <c r="J33">
+        <f t="shared" si="3"/>
+        <v>1.3553806159283255E-4</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>-1.5596490979322697E-3</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="1"/>
-        <v>1.3553806159283255E-4</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>-1.5596490979322697E-3</v>
-      </c>
-      <c r="L33">
-        <f>VLOOKUP(B33,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.4373888868666001E-3</v>
       </c>
       <c r="U33" s="1">
@@ -9457,23 +9446,23 @@
         <v>937870.064143116</v>
       </c>
       <c r="F34">
-        <f>F33*(1+L34)</f>
+        <f t="shared" si="0"/>
         <v>954264.9222527208</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.4112991337320469E-2</v>
       </c>
       <c r="J34">
+        <f t="shared" si="3"/>
+        <v>-1.5286820734587314E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>-1.7811687194243087E-2</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="1"/>
-        <v>-1.5286820734587314E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>-1.7811687194243087E-2</v>
-      </c>
-      <c r="L34">
-        <f>VLOOKUP(B34,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.3549053600545299E-2</v>
       </c>
       <c r="U34" s="1">
@@ -9497,23 +9486,23 @@
         <v>931505.40131489304</v>
       </c>
       <c r="F35">
-        <f>F34*(1+L35)</f>
+        <f t="shared" si="0"/>
         <v>948553.14951001119</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.5542947456439506E-3</v>
       </c>
       <c r="J35">
+        <f t="shared" si="3"/>
+        <v>-1.0175915013897363E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>-6.7862948947390311E-3</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="1"/>
-        <v>-1.0175915013897363E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>-6.7862948947390311E-3</v>
-      </c>
-      <c r="L35">
-        <f>VLOOKUP(B35,$U$2:$V$3312,2,FALSE)</f>
         <v>-5.9855210115299399E-3</v>
       </c>
       <c r="U35" s="1">
@@ -9537,23 +9526,23 @@
         <v>918315.03532809601</v>
       </c>
       <c r="F36">
-        <f>F35*(1+L36)</f>
+        <f t="shared" si="0"/>
         <v>937169.62526668597</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0978394579088113E-2</v>
       </c>
       <c r="J36">
+        <f t="shared" si="3"/>
+        <v>-1.5500066641009114E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>-1.416026785048996E-2</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="1"/>
-        <v>-1.5500066641009114E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>-1.416026785048996E-2</v>
-      </c>
-      <c r="L36">
-        <f>VLOOKUP(B36,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.2000934527712601E-2</v>
       </c>
       <c r="U36" s="1">
@@ -9577,23 +9566,23 @@
         <v>905609.09268053097</v>
       </c>
       <c r="F37">
-        <f>F36*(1+L37)</f>
+        <f t="shared" si="0"/>
         <v>924978.08316041972</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3693615010869409E-2</v>
       </c>
       <c r="J37">
+        <f t="shared" si="3"/>
+        <v>-1.0878739079187016E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>-1.3836147899969231E-2</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="1"/>
-        <v>-1.0878739079187016E-2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>-1.3836147899969231E-2</v>
-      </c>
-      <c r="L37">
-        <f>VLOOKUP(B37,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.30088959112359E-2</v>
       </c>
       <c r="U37" s="1">
@@ -9617,23 +9606,23 @@
         <v>908125.59558605601</v>
       </c>
       <c r="F38">
-        <f>F37*(1+L38)</f>
+        <f t="shared" si="0"/>
         <v>926681.93225056049</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.2129535892444494E-4</v>
       </c>
       <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1.5456872276595757E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>2.7787959792633377E-3</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.5456872276595757E-3</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>2.7787959792633377E-3</v>
-      </c>
-      <c r="L38">
-        <f>VLOOKUP(B38,$U$2:$V$3312,2,FALSE)</f>
         <v>1.8420426615074E-3</v>
       </c>
       <c r="U38" s="1">
@@ -9657,23 +9646,23 @@
         <v>930946.98516673699</v>
       </c>
       <c r="F39">
-        <f>F38*(1+L39)</f>
+        <f t="shared" si="0"/>
         <v>950332.49235441105</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0799271332374136E-2</v>
       </c>
       <c r="J39">
+        <f t="shared" si="3"/>
+        <v>2.5487887963426381E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>2.5130212926058215E-2</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="1"/>
-        <v>2.5487887963426381E-2</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>2.5130212926058215E-2</v>
-      </c>
-      <c r="L39">
-        <f>VLOOKUP(B39,$U$2:$V$3312,2,FALSE)</f>
         <v>2.5521766725733301E-2</v>
       </c>
       <c r="U39" s="1">
@@ -9697,23 +9686,23 @@
         <v>926405.55640083097</v>
       </c>
       <c r="F40">
-        <f>F39*(1+L40)</f>
+        <f t="shared" si="0"/>
         <v>945889.80958059744</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.9555897724720133E-3</v>
       </c>
       <c r="J40">
+        <f t="shared" si="3"/>
+        <v>1.1442142102622288E-3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>-4.878289352956644E-3</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="1"/>
-        <v>1.1442142102622288E-3</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>-4.878289352956644E-3</v>
-      </c>
-      <c r="L40">
-        <f>VLOOKUP(B40,$U$2:$V$3312,2,FALSE)</f>
         <v>-4.6748720153796299E-3</v>
       </c>
       <c r="U40" s="1">
@@ -9737,23 +9726,23 @@
         <v>910069.58847505902</v>
       </c>
       <c r="F41">
-        <f>F40*(1+L41)</f>
+        <f t="shared" si="0"/>
         <v>929731.17378232663</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.5620030625052128E-2</v>
       </c>
       <c r="J41">
+        <f t="shared" si="3"/>
+        <v>-1.7577895267427035E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>-1.7633711081395775E-2</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="1"/>
-        <v>-1.7577895267427035E-2</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>-1.7633711081395775E-2</v>
-      </c>
-      <c r="L41">
-        <f>VLOOKUP(B41,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.7083000191571399E-2</v>
       </c>
       <c r="U41" s="1">
@@ -9777,23 +9766,23 @@
         <v>926371.38944721594</v>
       </c>
       <c r="F42">
-        <f>F41*(1+L42)</f>
+        <f t="shared" si="0"/>
         <v>946479.04024658049</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3696359346786711E-2</v>
       </c>
       <c r="J42">
+        <f t="shared" si="3"/>
+        <v>1.6762030053462551E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>1.791269720315869E-2</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="1"/>
-        <v>1.6762030053462551E-2</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>1.791269720315869E-2</v>
-      </c>
-      <c r="L42">
-        <f>VLOOKUP(B42,$U$2:$V$3312,2,FALSE)</f>
         <v>1.8013665601982899E-2</v>
       </c>
       <c r="U42" s="1">
@@ -9817,23 +9806,23 @@
         <v>923728.46881331201</v>
       </c>
       <c r="F43">
-        <f>F42*(1+L43)</f>
+        <f t="shared" si="0"/>
         <v>945178.25967992365</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.0284943628162697E-3</v>
       </c>
       <c r="J43">
+        <f t="shared" si="3"/>
+        <v>-4.374583841530888E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>-2.8529817133936541E-3</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="1"/>
-        <v>-4.374583841530888E-3</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>-2.8529817133936541E-3</v>
-      </c>
-      <c r="L43">
-        <f>VLOOKUP(B43,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.37433636810173E-3</v>
       </c>
       <c r="U43" s="1">
@@ -9857,23 +9846,23 @@
         <v>918812.27127493406</v>
       </c>
       <c r="F44">
-        <f>F43*(1+L44)</f>
+        <f t="shared" si="0"/>
         <v>940910.53075923468</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.5561111662792992E-3</v>
       </c>
       <c r="J44">
+        <f t="shared" si="3"/>
+        <v>-3.9718892049515064E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>-5.3221240920436896E-3</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="1"/>
-        <v>-3.9718892049515064E-3</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>-5.3221240920436896E-3</v>
-      </c>
-      <c r="L44">
-        <f>VLOOKUP(B44,$U$2:$V$3312,2,FALSE)</f>
         <v>-4.5152635251410004E-3</v>
       </c>
       <c r="U44" s="1">
@@ -9897,23 +9886,23 @@
         <v>897015.89030272397</v>
       </c>
       <c r="F45">
-        <f>F44*(1+L45)</f>
+        <f t="shared" si="0"/>
         <v>919747.79391567584</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.3097408064679303E-2</v>
       </c>
       <c r="J45">
+        <f t="shared" si="3"/>
+        <v>-1.8595393793886861E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>-2.3722344219418878E-2</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="1"/>
-        <v>-1.8595393793886861E-2</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>-2.3722344219418878E-2</v>
-      </c>
-      <c r="L45">
-        <f>VLOOKUP(B45,$U$2:$V$3312,2,FALSE)</f>
         <v>-2.2491763192917302E-2</v>
       </c>
       <c r="U45" s="1">
@@ -9937,23 +9926,23 @@
         <v>891966.33487351495</v>
       </c>
       <c r="F46">
-        <f>F45*(1+L46)</f>
+        <f t="shared" si="0"/>
         <v>914621.66759084829</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5062717007481332E-4</v>
       </c>
       <c r="J46">
+        <f t="shared" si="3"/>
+        <v>-4.4778329859008759E-3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>-5.6292820269938648E-3</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="1"/>
-        <v>-4.4778329859008759E-3</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>-5.6292820269938648E-3</v>
-      </c>
-      <c r="L46">
-        <f>VLOOKUP(B46,$U$2:$V$3312,2,FALSE)</f>
         <v>-5.5734043166375501E-3</v>
       </c>
       <c r="U46" s="1">
@@ -9977,23 +9966,23 @@
         <v>909831.80783224001</v>
       </c>
       <c r="F47">
-        <f>F46*(1+L47)</f>
+        <f t="shared" si="0"/>
         <v>931506.74375433626</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.41654290969222E-2</v>
       </c>
       <c r="J47">
+        <f t="shared" si="3"/>
+        <v>1.4752305092296858E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>2.002931305838862E-2</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="1"/>
-        <v>1.4752305092296858E-2</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>2.002931305838862E-2</v>
-      </c>
-      <c r="L47">
-        <f>VLOOKUP(B47,$U$2:$V$3312,2,FALSE)</f>
         <v>1.8461268480511699E-2</v>
       </c>
       <c r="U47" s="1">
@@ -10017,23 +10006,23 @@
         <v>906765.53728869196</v>
       </c>
       <c r="F48">
-        <f>F47*(1+L48)</f>
+        <f t="shared" si="0"/>
         <v>926659.19204684522</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.0529062745736661E-3</v>
       </c>
       <c r="J48">
+        <f t="shared" si="3"/>
+        <v>4.1883402823317262E-4</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>-3.370150963235452E-3</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="1"/>
-        <v>4.1883402823317262E-4</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>-3.370150963235452E-3</v>
-      </c>
-      <c r="L48">
-        <f>VLOOKUP(B48,$U$2:$V$3312,2,FALSE)</f>
         <v>-5.20398992277125E-3</v>
       </c>
       <c r="U48" s="1">
@@ -10057,23 +10046,23 @@
         <v>900482.12774703605</v>
       </c>
       <c r="F49">
-        <f>F48*(1+L49)</f>
+        <f t="shared" si="0"/>
         <v>920268.39914096065</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.9170771702676799E-3</v>
       </c>
       <c r="J49">
+        <f t="shared" si="3"/>
+        <v>-6.1709549194576274E-3</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>-6.9294754633527633E-3</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="1"/>
-        <v>-6.1709549194576274E-3</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>-6.9294754633527633E-3</v>
-      </c>
-      <c r="L49">
-        <f>VLOOKUP(B49,$U$2:$V$3312,2,FALSE)</f>
         <v>-6.8965947359442099E-3</v>
       </c>
       <c r="U49" s="1">
@@ -10097,23 +10086,23 @@
         <v>900510.74257068895</v>
       </c>
       <c r="F50">
-        <f>F49*(1+L50)</f>
+        <f t="shared" si="0"/>
         <v>919630.84656723833</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0114471625054633E-2</v>
       </c>
       <c r="J50">
+        <f t="shared" si="3"/>
+        <v>3.254108379125098E-3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>3.1777225522944264E-5</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.254108379125098E-3</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>3.1777225522944264E-5</v>
-      </c>
-      <c r="L50">
-        <f>VLOOKUP(B50,$U$2:$V$3312,2,FALSE)</f>
         <v>-6.9278981470782602E-4</v>
       </c>
       <c r="U50" s="1">
@@ -10137,23 +10126,23 @@
         <v>916886.32280831004</v>
       </c>
       <c r="F51">
-        <f>F50*(1+L51)</f>
+        <f t="shared" si="0"/>
         <v>935378.56385653024</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5282977820394228E-2</v>
       </c>
       <c r="J51">
+        <f t="shared" si="3"/>
+        <v>1.9126339859896202E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>1.8184769446363047E-2</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.9126339859896202E-2</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>1.8184769446363047E-2</v>
-      </c>
-      <c r="L51">
-        <f>VLOOKUP(B51,$U$2:$V$3312,2,FALSE)</f>
         <v>1.7123955060961999E-2</v>
       </c>
       <c r="U51" s="1">
@@ -10177,23 +10166,23 @@
         <v>931065.92887401197</v>
       </c>
       <c r="F52">
-        <f>F51*(1+L52)</f>
+        <f t="shared" si="0"/>
         <v>948963.12859080127</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5506119518903017E-2</v>
       </c>
       <c r="J52">
+        <f t="shared" si="3"/>
+        <v>9.9211347991106091E-3</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>1.5464955374480338E-2</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="1"/>
-        <v>9.9211347991106091E-3</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="2"/>
-        <v>1.5464955374480338E-2</v>
-      </c>
-      <c r="L52">
-        <f>VLOOKUP(B52,$U$2:$V$3312,2,FALSE)</f>
         <v>1.45230661244389E-2</v>
       </c>
       <c r="U52" s="1">
@@ -10217,23 +10206,23 @@
         <v>942482.06902258401</v>
       </c>
       <c r="F53">
-        <f>F52*(1+L53)</f>
+        <f t="shared" si="0"/>
         <v>959248.85022818355</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1165654647598666E-2</v>
       </c>
       <c r="J53">
+        <f t="shared" si="3"/>
+        <v>8.2224674115085605E-3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>1.2261366026333098E-2</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="1"/>
-        <v>8.2224674115085605E-3</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="2"/>
-        <v>1.2261366026333098E-2</v>
-      </c>
-      <c r="L53">
-        <f>VLOOKUP(B53,$U$2:$V$3312,2,FALSE)</f>
         <v>1.0838905461644699E-2</v>
       </c>
       <c r="U53" s="1">
@@ -10257,23 +10246,23 @@
         <v>949976.05643953604</v>
       </c>
       <c r="F54">
-        <f>F53*(1+L54)</f>
+        <f t="shared" si="0"/>
         <v>965520.96684119559</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3767474742245653E-3</v>
       </c>
       <c r="J54">
+        <f t="shared" si="3"/>
+        <v>3.0349286287496557E-3</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>7.9513315566033249E-3</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="1"/>
-        <v>3.0349286287496557E-3</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
-        <v>7.9513315566033249E-3</v>
-      </c>
-      <c r="L54">
-        <f>VLOOKUP(B54,$U$2:$V$3312,2,FALSE)</f>
         <v>6.5385708948412502E-3</v>
       </c>
       <c r="U54" s="1">
@@ -10297,23 +10286,23 @@
         <v>944456.27831119101</v>
       </c>
       <c r="F55">
-        <f>F54*(1+L55)</f>
+        <f t="shared" si="0"/>
         <v>961706.44189093821</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1425482529157112E-3</v>
       </c>
       <c r="J55">
+        <f t="shared" si="3"/>
+        <v>-7.7136151659017438E-3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>-5.8104392115237991E-3</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="1"/>
-        <v>-7.7136151659017438E-3</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="2"/>
-        <v>-5.8104392115237991E-3</v>
-      </c>
-      <c r="L55">
-        <f>VLOOKUP(B55,$U$2:$V$3312,2,FALSE)</f>
         <v>-3.9507427401985701E-3</v>
       </c>
       <c r="U55" s="1">
@@ -10337,23 +10326,23 @@
         <v>951411.922665235</v>
       </c>
       <c r="F56">
-        <f>F55*(1+L56)</f>
+        <f t="shared" si="0"/>
         <v>969315.04246541159</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5351644886006994E-3</v>
       </c>
       <c r="J56">
+        <f t="shared" si="3"/>
+        <v>6.3783587476651249E-3</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>7.3647076246678989E-3</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="1"/>
-        <v>6.3783587476651249E-3</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="2"/>
-        <v>7.3647076246678989E-3</v>
-      </c>
-      <c r="L56">
-        <f>VLOOKUP(B56,$U$2:$V$3312,2,FALSE)</f>
         <v>7.9115624509211203E-3</v>
       </c>
       <c r="U56" s="1">
@@ -10377,23 +10366,23 @@
         <v>939140.22064377996</v>
       </c>
       <c r="F57">
-        <f>F56*(1+L57)</f>
+        <f t="shared" si="0"/>
         <v>958089.26886197249</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.2291665341782627E-3</v>
       </c>
       <c r="J57">
+        <f t="shared" si="3"/>
+        <v>-1.2513186866114134E-2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>-1.2898411013263056E-2</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="1"/>
-        <v>-1.2513186866114134E-2</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="2"/>
-        <v>-1.2898411013263056E-2</v>
-      </c>
-      <c r="L57">
-        <f>VLOOKUP(B57,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.15811404049676E-2</v>
       </c>
       <c r="U57" s="1">
@@ -10417,23 +10406,23 @@
         <v>948691.69929877599</v>
       </c>
       <c r="F58">
-        <f>F57*(1+L58)</f>
+        <f t="shared" si="0"/>
         <v>968166.9270964046</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0705404449663947E-2</v>
       </c>
       <c r="J58">
+        <f t="shared" si="3"/>
+        <v>9.7927439457907717E-3</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>1.0170449997816577E-2</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="1"/>
-        <v>9.7927439457907717E-3</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="2"/>
-        <v>1.0170449997816577E-2</v>
-      </c>
-      <c r="L58">
-        <f>VLOOKUP(B58,$U$2:$V$3312,2,FALSE)</f>
         <v>1.05184960963006E-2</v>
       </c>
       <c r="U58" s="1">
@@ -10457,23 +10446,23 @@
         <v>952881.84907282097</v>
       </c>
       <c r="F59">
-        <f>F58*(1+L59)</f>
+        <f t="shared" si="0"/>
         <v>973981.23385602387</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9643469561226929E-3</v>
       </c>
       <c r="J59">
+        <f t="shared" si="3"/>
+        <v>4.0744060882953459E-3</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>4.4167665608776385E-3</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="1"/>
-        <v>4.0744060882953459E-3</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="2"/>
-        <v>4.4167665608776385E-3</v>
-      </c>
-      <c r="L59">
-        <f>VLOOKUP(B59,$U$2:$V$3312,2,FALSE)</f>
         <v>6.0054796305186202E-3</v>
       </c>
       <c r="U59" s="1">
@@ -10497,23 +10486,23 @@
         <v>955469.03486363904</v>
       </c>
       <c r="F60">
-        <f>F59*(1+L60)</f>
+        <f t="shared" si="0"/>
         <v>975993.86361183273</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.5258755569421716E-4</v>
       </c>
       <c r="J60">
+        <f t="shared" si="3"/>
+        <v>6.9774085054581381E-3</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>2.7151170875334696E-3</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="1"/>
-        <v>6.9774085054581381E-3</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="2"/>
-        <v>2.7151170875334696E-3</v>
-      </c>
-      <c r="L60">
-        <f>VLOOKUP(B60,$U$2:$V$3312,2,FALSE)</f>
         <v>2.0663947988410602E-3</v>
       </c>
       <c r="U60" s="1">
@@ -10537,23 +10526,23 @@
         <v>964716.000544535</v>
       </c>
       <c r="F61">
-        <f>F60*(1+L61)</f>
+        <f t="shared" si="0"/>
         <v>985913.83021543105</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.4223256812193679E-3</v>
       </c>
       <c r="J61">
+        <f t="shared" si="3"/>
+        <v>1.0547768286339743E-2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>9.6779333955241409E-3</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="1"/>
-        <v>1.0547768286339743E-2</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="2"/>
-        <v>9.6779333955241409E-3</v>
-      </c>
-      <c r="L61">
-        <f>VLOOKUP(B61,$U$2:$V$3312,2,FALSE)</f>
         <v>1.01639641123232E-2</v>
       </c>
       <c r="U61" s="1">
@@ -10577,23 +10566,23 @@
         <v>962928.855326975</v>
       </c>
       <c r="F62">
-        <f>F61*(1+L62)</f>
+        <f t="shared" si="0"/>
         <v>984197.03733118984</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8051708297116562E-5</v>
       </c>
       <c r="J62">
+        <f t="shared" si="3"/>
+        <v>7.8602223830537277E-3</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>-1.8525091493778456E-3</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="1"/>
-        <v>7.8602223830537277E-3</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="2"/>
-        <v>-1.8525091493778456E-3</v>
-      </c>
-      <c r="L62">
-        <f>VLOOKUP(B62,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.74132143360453E-3</v>
       </c>
       <c r="U62" s="1">
@@ -10617,23 +10606,23 @@
         <v>947882.903443655</v>
       </c>
       <c r="F63">
-        <f>F62*(1+L63)</f>
+        <f t="shared" si="0"/>
         <v>968049.40689987841</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.4618826881735436E-2</v>
       </c>
       <c r="J63">
+        <f t="shared" si="3"/>
+        <v>-1.366731354991324E-2</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>-1.5625195776494794E-2</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="1"/>
-        <v>-1.366731354991324E-2</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="2"/>
-        <v>-1.5625195776494794E-2</v>
-      </c>
-      <c r="L63">
-        <f>VLOOKUP(B63,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.6406908188931701E-2</v>
       </c>
       <c r="U63" s="1">
@@ -10657,23 +10646,23 @@
         <v>951707.36004228098</v>
       </c>
       <c r="F64">
-        <f>F63*(1+L64)</f>
+        <f t="shared" si="0"/>
         <v>971090.09346447617</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.8921776452969254E-4</v>
       </c>
       <c r="J64">
+        <f t="shared" si="3"/>
+        <v>3.7878292406401393E-3</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>4.0347352871665798E-3</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="1"/>
-        <v>3.7878292406401393E-3</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="2"/>
-        <v>4.0347352871665798E-3</v>
-      </c>
-      <c r="L64">
-        <f>VLOOKUP(B64,$U$2:$V$3312,2,FALSE)</f>
         <v>3.1410448092058902E-3</v>
       </c>
       <c r="U64" s="1">
@@ -10697,23 +10686,23 @@
         <v>954539.37341010198</v>
       </c>
       <c r="F65">
-        <f>F64*(1+L65)</f>
+        <f t="shared" si="0"/>
         <v>974185.5178995186</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7916762340604038E-3</v>
       </c>
       <c r="J65">
+        <f t="shared" si="3"/>
+        <v>8.0084850207273739E-4</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>2.9757186785812628E-3</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="1"/>
-        <v>8.0084850207273739E-4</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="2"/>
-        <v>2.9757186785812628E-3</v>
-      </c>
-      <c r="L65">
-        <f>VLOOKUP(B65,$U$2:$V$3312,2,FALSE)</f>
         <v>3.1875769878355899E-3</v>
       </c>
       <c r="U65" s="1">
@@ -10737,23 +10726,23 @@
         <v>946866.86366050795</v>
       </c>
       <c r="F66">
-        <f>F65*(1+L66)</f>
+        <f t="shared" si="0"/>
         <v>965946.70265843836</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.1844652432864033E-2</v>
       </c>
       <c r="J66">
+        <f t="shared" si="3"/>
+        <v>-1.0812181425019496E-2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>-8.0379185639916084E-3</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="1"/>
-        <v>-1.0812181425019496E-2</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="2"/>
-        <v>-8.0379185639916084E-3</v>
-      </c>
-      <c r="L66">
-        <f>VLOOKUP(B66,$U$2:$V$3312,2,FALSE)</f>
         <v>-8.4571317163945094E-3</v>
       </c>
       <c r="U66" s="1">
@@ -10777,23 +10766,23 @@
         <v>942912.57263814204</v>
       </c>
       <c r="F67">
-        <f>F66*(1+L67)</f>
+        <f t="shared" ref="F67:F130" si="5">F66*(1+L67)</f>
         <v>962998.79190253594</v>
       </c>
       <c r="I67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.0512222988560174E-3</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1357211663959337E-3</v>
       </c>
       <c r="K67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.1761848197738871E-3</v>
       </c>
       <c r="L67">
-        <f>VLOOKUP(B67,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" ref="L67:L130" si="6">VLOOKUP(B67,$U$2:$V$3312,2,FALSE)</f>
         <v>-3.0518358288188002E-3</v>
       </c>
       <c r="U67" s="1">
@@ -10817,23 +10806,23 @@
         <v>945292.19418574497</v>
       </c>
       <c r="F68">
-        <f>F67*(1+L68)</f>
+        <f t="shared" si="5"/>
         <v>965894.17574100511</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" si="3">C68/C67-1</f>
+        <f t="shared" ref="I68:I131" si="7">C68/C67-1</f>
         <v>3.6098991771449374E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J131" si="4">D68/D67-1</f>
+        <f t="shared" ref="J68:J131" si="8">D68/D67-1</f>
         <v>3.053498092906004E-3</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K131" si="5">E68/E67-1</f>
+        <f t="shared" ref="K68:K131" si="9">E68/E67-1</f>
         <v>2.5236926695602069E-3</v>
       </c>
       <c r="L68">
-        <f>VLOOKUP(B68,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>3.0066328876164998E-3</v>
       </c>
       <c r="U68" s="1">
@@ -10857,23 +10846,23 @@
         <v>949051.94711596204</v>
       </c>
       <c r="F69">
-        <f>F68*(1+L69)</f>
+        <f t="shared" si="5"/>
         <v>968369.4808568653</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6750478562310711E-4</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1167510378455869E-3</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.9773447335569312E-3</v>
       </c>
       <c r="L69">
-        <f>VLOOKUP(B69,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.5627083981132198E-3</v>
       </c>
       <c r="U69" s="1">
@@ -10897,23 +10886,23 @@
         <v>937762.01115230704</v>
       </c>
       <c r="F70">
-        <f>F69*(1+L70)</f>
+        <f t="shared" si="5"/>
         <v>957211.17302624846</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.1258329448910365E-2</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.1352317903887021E-2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.1896014752367901E-2</v>
       </c>
       <c r="L70">
-        <f>VLOOKUP(B70,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.15227793225612E-2</v>
       </c>
       <c r="U70" s="1">
@@ -10937,23 +10926,23 @@
         <v>935364.34518232604</v>
       </c>
       <c r="F71">
-        <f>F70*(1+L71)</f>
+        <f t="shared" si="5"/>
         <v>954717.36937241827</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.2368684142718429E-3</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.7755247901589675E-3</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5567957983655409E-3</v>
       </c>
       <c r="L71">
-        <f>VLOOKUP(B71,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.6052805526140801E-3</v>
       </c>
       <c r="U71" s="1">
@@ -10977,23 +10966,23 @@
         <v>944773.39034943702</v>
       </c>
       <c r="F72">
-        <f>F71*(1+L72)</f>
+        <f t="shared" si="5"/>
         <v>963683.44003439555</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.4736874859744358E-3</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5640799492396162E-2</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0059230091004734E-2</v>
       </c>
       <c r="L72">
-        <f>VLOOKUP(B72,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>9.3913350166355807E-3</v>
       </c>
       <c r="U72" s="1">
@@ -11017,23 +11006,23 @@
         <v>941674.874743414</v>
       </c>
       <c r="F73">
-        <f>F72*(1+L73)</f>
+        <f t="shared" si="5"/>
         <v>960600.94236110675</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.9866743753247427E-3</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.3170799705578586E-3</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.279638945882013E-3</v>
       </c>
       <c r="L73">
-        <f>VLOOKUP(B73,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-3.1986620763959799E-3</v>
       </c>
       <c r="U73" s="1">
@@ -11057,23 +11046,23 @@
         <v>940594.13129185699</v>
       </c>
       <c r="F74">
-        <f>F73*(1+L74)</f>
+        <f t="shared" si="5"/>
         <v>958707.51112256909</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-9.0536225821336025E-5</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.6866183387198639E-3</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.1476821571261286E-3</v>
       </c>
       <c r="L74">
-        <f>VLOOKUP(B74,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.97109034047354E-3</v>
       </c>
       <c r="U74" s="1">
@@ -11097,23 +11086,23 @@
         <v>954247.45950014796</v>
       </c>
       <c r="F75">
-        <f>F74*(1+L75)</f>
+        <f t="shared" si="5"/>
         <v>973433.97212429252</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0825195254410502E-2</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8059119810432511E-2</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4515642564704168E-2</v>
       </c>
       <c r="L75">
-        <f>VLOOKUP(B75,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.5360744367674701E-2</v>
       </c>
       <c r="U75" s="1">
@@ -11137,23 +11126,23 @@
         <v>961069.63919163099</v>
       </c>
       <c r="F76">
-        <f>F75*(1+L76)</f>
+        <f t="shared" si="5"/>
         <v>980242.02533069043</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.8212150991509013E-4</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4909915996796919E-3</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.1492772902499446E-3</v>
       </c>
       <c r="L76">
-        <f>VLOOKUP(B76,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.9938520755967997E-3</v>
       </c>
       <c r="U76" s="1">
@@ -11177,23 +11166,23 @@
         <v>951010.14064506104</v>
       </c>
       <c r="F77">
-        <f>F76*(1+L77)</f>
+        <f t="shared" si="5"/>
         <v>972020.5211021438</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.1405193887257026E-2</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.0910025565914534E-3</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.0466981929666552E-2</v>
       </c>
       <c r="L77">
-        <f>VLOOKUP(B77,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-8.3872186828278898E-3</v>
       </c>
       <c r="U77" s="1">
@@ -11217,23 +11206,23 @@
         <v>924185.98567657196</v>
       </c>
       <c r="F78">
-        <f>F77*(1+L78)</f>
+        <f t="shared" si="5"/>
         <v>945649.34591824305</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.5329222597435428E-2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.1785353544328312E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8205961032439109E-2</v>
       </c>
       <c r="L78">
-        <f>VLOOKUP(B78,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.7130265885744201E-2</v>
       </c>
       <c r="U78" s="1">
@@ -11257,23 +11246,23 @@
         <v>930693.08199267997</v>
       </c>
       <c r="F79">
-        <f>F78*(1+L79)</f>
+        <f t="shared" si="5"/>
         <v>950902.7578166622</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8801039764034808E-3</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7519342161747034E-3</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0408948165820995E-3</v>
       </c>
       <c r="L79">
-        <f>VLOOKUP(B79,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>5.5553487358656999E-3</v>
       </c>
       <c r="U79" s="1">
@@ -11297,23 +11286,23 @@
         <v>908572.54204804101</v>
       </c>
       <c r="F80">
-        <f>F79*(1+L80)</f>
+        <f t="shared" si="5"/>
         <v>928211.33566671435</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.7645898070248753E-2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.2442378086113712E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.3767813871869881E-2</v>
       </c>
       <c r="L80">
-        <f>VLOOKUP(B80,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.38630311705572E-2</v>
       </c>
       <c r="U80" s="1">
@@ -11337,23 +11326,23 @@
         <v>910260.38955665706</v>
       </c>
       <c r="F81">
-        <f>F80*(1+L81)</f>
+        <f t="shared" si="5"/>
         <v>926891.57847505168</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.3883297089204465E-3</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.4970964089779937E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8576915221446555E-3</v>
       </c>
       <c r="L81">
-        <f>VLOOKUP(B81,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.4218283498065401E-3</v>
       </c>
       <c r="U81" s="1">
@@ -11377,23 +11366,23 @@
         <v>927055.79623682995</v>
       </c>
       <c r="F82">
-        <f>F81*(1+L82)</f>
+        <f t="shared" si="5"/>
         <v>944688.49891854485</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9065341957124726E-2</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4902052220789441E-2</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8451211184036254E-2</v>
       </c>
       <c r="L82">
-        <f>VLOOKUP(B82,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.9200649630211598E-2</v>
       </c>
       <c r="U82" s="1">
@@ -11417,23 +11406,23 @@
         <v>901384.66918114095</v>
       </c>
       <c r="F83">
-        <f>F82*(1+L83)</f>
+        <f t="shared" si="5"/>
         <v>917715.9111487834</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.3044878875663422E-2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.8668823321551962E-2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7691026969352883E-2</v>
       </c>
       <c r="L83">
-        <f>VLOOKUP(B83,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.85518324830237E-2</v>
       </c>
       <c r="U83" s="1">
@@ -11457,23 +11446,23 @@
         <v>903688.58957213897</v>
       </c>
       <c r="F84">
-        <f>F83*(1+L84)</f>
+        <f t="shared" si="5"/>
         <v>920797.71459865232</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.4749767647918048E-3</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.3017764207262648E-3</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.5559791172076185E-3</v>
       </c>
       <c r="L84">
-        <f>VLOOKUP(B84,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>3.3581235896969299E-3</v>
       </c>
       <c r="U84" s="1">
@@ -11497,23 +11486,23 @@
         <v>905527.83939396299</v>
       </c>
       <c r="F85">
-        <f>F84*(1+L85)</f>
+        <f t="shared" si="5"/>
         <v>923504.61899673939</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.9818147653825076E-4</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.1780493453277288E-3</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0352694977534558E-3</v>
       </c>
       <c r="L85">
-        <f>VLOOKUP(B85,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.9397383976640401E-3</v>
       </c>
       <c r="U85" s="1">
@@ -11537,23 +11526,23 @@
         <v>931010.08725919598</v>
       </c>
       <c r="F86">
-        <f>F85*(1+L86)</f>
+        <f t="shared" si="5"/>
         <v>949980.96450868587</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1444194517265212E-2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1581945436110805E-2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.8140766916992188E-2</v>
       </c>
       <c r="L86">
-        <f>VLOOKUP(B86,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.86694240259559E-2</v>
       </c>
       <c r="U86" s="1">
@@ -11577,23 +11566,23 @@
         <v>901952.05415462097</v>
       </c>
       <c r="F87">
-        <f>F86*(1+L87)</f>
+        <f t="shared" si="5"/>
         <v>922336.77583009424</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.9830715970840527E-2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.9371936231654794E-2</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.1211297817533956E-2</v>
       </c>
       <c r="L87">
-        <f>VLOOKUP(B87,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.90997290591909E-2</v>
       </c>
       <c r="U87" s="1">
@@ -11617,23 +11606,23 @@
         <v>899257.02891645301</v>
       </c>
       <c r="F88">
-        <f>F87*(1+L88)</f>
+        <f t="shared" si="5"/>
         <v>919291.49064426171</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.2144976537803469E-3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.929957788483045E-3</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.9879916850945598E-3</v>
       </c>
       <c r="L88">
-        <f>VLOOKUP(B88,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-3.3017063459188601E-3</v>
       </c>
       <c r="U88" s="1">
@@ -11657,23 +11646,23 @@
         <v>881389.84761004802</v>
       </c>
       <c r="F89">
-        <f>F88*(1+L89)</f>
+        <f t="shared" si="5"/>
         <v>902403.6185563606</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.7953528274827E-2</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.4073263229498654E-2</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.9868825854976957E-2</v>
       </c>
       <c r="L89">
-        <f>VLOOKUP(B89,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.8370530196103099E-2</v>
       </c>
       <c r="U89" s="1">
@@ -11697,23 +11686,23 @@
         <v>879067.61586734594</v>
       </c>
       <c r="F90">
-        <f>F89*(1+L90)</f>
+        <f t="shared" si="5"/>
         <v>900067.956537436</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.3062821091701675E-3</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.533064239195304E-3</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.634738474693088E-3</v>
       </c>
       <c r="L90">
-        <f>VLOOKUP(B90,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.58826756774428E-3</v>
       </c>
       <c r="U90" s="1">
@@ -11737,23 +11726,23 @@
         <v>870139.63072997099</v>
       </c>
       <c r="F91">
-        <f>F90*(1+L91)</f>
+        <f t="shared" si="5"/>
         <v>890923.02296115831</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.1366383927817783E-3</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.4143411974666842E-2</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.0156198426859331E-2</v>
       </c>
       <c r="L91">
-        <f>VLOOKUP(B91,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.0160270132777901E-2</v>
       </c>
       <c r="U91" s="1">
@@ -11777,23 +11766,23 @@
         <v>867302.17200391798</v>
       </c>
       <c r="F92">
-        <f>F91*(1+L92)</f>
+        <f t="shared" si="5"/>
         <v>888718.36324921926</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.053518941184219E-3</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.147160882643667E-3</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.2609234493464756E-3</v>
       </c>
       <c r="L92">
-        <f>VLOOKUP(B92,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.47457934649774E-3</v>
       </c>
       <c r="U92" s="1">
@@ -11817,23 +11806,23 @@
         <v>880049.43531101197</v>
       </c>
       <c r="F93">
-        <f>F92*(1+L93)</f>
+        <f t="shared" si="5"/>
         <v>902273.67109608662</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.73916149016069E-2</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2875898429244304E-2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4697603348140076E-2</v>
       </c>
       <c r="L93">
-        <f>VLOOKUP(B93,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.5252647416115201E-2</v>
       </c>
       <c r="U93" s="1">
@@ -11857,23 +11846,23 @@
         <v>880780.87504771305</v>
       </c>
       <c r="F94">
-        <f>F93*(1+L94)</f>
+        <f t="shared" si="5"/>
         <v>903067.53791892715</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.6547655880447838E-3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.4247987491344833E-3</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.3113482874130895E-4</v>
       </c>
       <c r="L94">
-        <f>VLOOKUP(B94,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>8.7985147774091005E-4</v>
       </c>
       <c r="U94" s="1">
@@ -11897,23 +11886,23 @@
         <v>892566.285224661</v>
       </c>
       <c r="F95">
-        <f>F94*(1+L95)</f>
+        <f t="shared" si="5"/>
         <v>915705.20009378495</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5281673286248409E-2</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4.1129403259100306E-3</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.338063814829038E-2</v>
       </c>
       <c r="L95">
-        <f>VLOOKUP(B95,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.39941495449837E-2</v>
       </c>
       <c r="U95" s="1">
@@ -11937,23 +11926,23 @@
         <v>860735.81737763295</v>
       </c>
       <c r="F96">
-        <f>F95*(1+L96)</f>
+        <f t="shared" si="5"/>
         <v>881515.06720578228</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-9.9999787765547854E-4</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-9.999950146345471E-4</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.5661741177033468E-2</v>
       </c>
       <c r="L96">
-        <f>VLOOKUP(B96,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-3.7337489057068803E-2</v>
       </c>
       <c r="U96" s="1">
@@ -11977,23 +11966,23 @@
         <v>854259.41793391295</v>
       </c>
       <c r="F97">
-        <f>F96*(1+L97)</f>
+        <f t="shared" si="5"/>
         <v>869958.60237726662</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.7613937306375558E-4</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-6.8930672228251222E-4</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.5242592593059987E-3</v>
       </c>
       <c r="L97">
-        <f>VLOOKUP(B97,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.3109775724137299E-2</v>
       </c>
       <c r="U97" s="1">
@@ -12017,23 +12006,23 @@
         <v>854499.12046787306</v>
       </c>
       <c r="F98">
-        <f>F97*(1+L98)</f>
+        <f t="shared" si="5"/>
         <v>870531.58871847554</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.5877438199413163E-5</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.4138442404132423E-4</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.8059688769932478E-4</v>
       </c>
       <c r="L98">
-        <f>VLOOKUP(B98,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.5863633010018003E-4</v>
       </c>
       <c r="U98" s="1">
@@ -12057,23 +12046,23 @@
         <v>871400.55147598498</v>
       </c>
       <c r="F99">
-        <f>F98*(1+L99)</f>
+        <f t="shared" si="5"/>
         <v>888792.40207715426</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2089563181592045E-3</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1330755323834012E-3</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.977934277902782E-2</v>
       </c>
       <c r="L99">
-        <f>VLOOKUP(B99,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.0976623473894701E-2</v>
       </c>
       <c r="U99" s="1">
@@ -12097,23 +12086,23 @@
         <v>872722.91935264296</v>
       </c>
       <c r="F100">
-        <f>F99*(1+L100)</f>
+        <f t="shared" si="5"/>
         <v>889598.65570884</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-9.2783299228826888E-4</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8654885442237479E-3</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5175201282786599E-3</v>
       </c>
       <c r="L100">
-        <f>VLOOKUP(B100,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>9.0713380290092605E-4</v>
       </c>
       <c r="U100" s="1">
@@ -12137,23 +12126,23 @@
         <v>877961.674287498</v>
       </c>
       <c r="F101">
-        <f>F100*(1+L101)</f>
+        <f t="shared" si="5"/>
         <v>895228.44013974478</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3445653576729111E-3</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5690009322602023E-3</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.002769972789368E-3</v>
       </c>
       <c r="L101">
-        <f>VLOOKUP(B101,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.3284542920301204E-3</v>
       </c>
       <c r="U101" s="1">
@@ -12177,23 +12166,23 @@
         <v>892090.67055315699</v>
       </c>
       <c r="F102">
-        <f>F101*(1+L102)</f>
+        <f t="shared" si="5"/>
         <v>909848.44926328748</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.2331883669390891E-3</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1206064928654724E-2</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6092953348020966E-2</v>
       </c>
       <c r="L102">
-        <f>VLOOKUP(B102,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.6331037384447501E-2</v>
       </c>
       <c r="U102" s="1">
@@ -12217,23 +12206,23 @@
         <v>907828.55663305998</v>
       </c>
       <c r="F103">
-        <f>F102*(1+L103)</f>
+        <f t="shared" si="5"/>
         <v>926402.0470656784</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.117349945318761E-3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1071709771841798E-2</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7641576803111736E-2</v>
       </c>
       <c r="L103">
-        <f>VLOOKUP(B103,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.8193796797471701E-2</v>
       </c>
       <c r="U103" s="1">
@@ -12257,23 +12246,23 @@
         <v>901737.54974895297</v>
       </c>
       <c r="F104">
-        <f>F103*(1+L104)</f>
+        <f t="shared" si="5"/>
         <v>921933.43982336717</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.1922823845065285E-4</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.8657734968478001E-3</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.7094241964553714E-3</v>
       </c>
       <c r="L104">
-        <f>VLOOKUP(B104,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-4.8236154663790602E-3</v>
       </c>
       <c r="U104" s="1">
@@ -12297,23 +12286,23 @@
         <v>896902.49872541195</v>
       </c>
       <c r="F105">
-        <f>F104*(1+L105)</f>
+        <f t="shared" si="5"/>
         <v>917947.54587103624</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9465143663777162E-4</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.8901037529236495E-3</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.3619271204654595E-3</v>
       </c>
       <c r="L105">
-        <f>VLOOKUP(B105,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-4.3234075044448301E-3</v>
       </c>
       <c r="U105" s="1">
@@ -12337,23 +12326,23 @@
         <v>908793.98661616305</v>
       </c>
       <c r="F106">
-        <f>F105*(1+L106)</f>
+        <f t="shared" si="5"/>
         <v>931321.46358102886</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.1205167909789147E-3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.5832609389506747E-3</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3258395319056593E-2</v>
       </c>
       <c r="L106">
-        <f>VLOOKUP(B106,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.45693702980622E-2</v>
       </c>
       <c r="U106" s="1">
@@ -12377,23 +12366,23 @@
         <v>899265.99774177698</v>
       </c>
       <c r="F107">
-        <f>F106*(1+L107)</f>
+        <f t="shared" si="5"/>
         <v>921189.56788254122</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.7753251518136688E-3</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-6.8394279438562799E-3</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.0484212059834297E-2</v>
       </c>
       <c r="L107">
-        <f>VLOOKUP(B107,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.0879053146192299E-2</v>
       </c>
       <c r="U107" s="1">
@@ -12417,23 +12406,23 @@
         <v>899705.57695438899</v>
       </c>
       <c r="F108">
-        <f>F107*(1+L108)</f>
+        <f t="shared" si="5"/>
         <v>921454.59845590149</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-9.3037780258498071E-4</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5513779153430995E-4</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.8882000844674423E-4</v>
       </c>
       <c r="L108">
-        <f>VLOOKUP(B108,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.8770470552491801E-4</v>
       </c>
       <c r="U108" s="1">
@@ -12457,23 +12446,23 @@
         <v>906931.46055718802</v>
       </c>
       <c r="F109">
-        <f>F108*(1+L109)</f>
+        <f t="shared" si="5"/>
         <v>928056.45939659746</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.1679897468658318E-3</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.006418601607777E-3</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.0313869202184307E-3</v>
       </c>
       <c r="L109">
-        <f>VLOOKUP(B109,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>7.1646079489524703E-3</v>
       </c>
       <c r="U109" s="1">
@@ -12497,23 +12486,23 @@
         <v>899572.11229182803</v>
       </c>
       <c r="F110">
-        <f>F109*(1+L110)</f>
+        <f t="shared" si="5"/>
         <v>919604.99749099091</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.5005075663014908E-3</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.0140687688632855E-2</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-8.1145583601639482E-3</v>
       </c>
       <c r="L110">
-        <f>VLOOKUP(B110,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-9.1066247317556498E-3</v>
       </c>
       <c r="U110" s="1">
@@ -12537,23 +12526,23 @@
         <v>882130.30955793802</v>
       </c>
       <c r="F111">
-        <f>F110*(1+L111)</f>
+        <f t="shared" si="5"/>
         <v>900736.07271720457</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.723519884006719E-2</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.1571139931501837E-2</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.9388998942456936E-2</v>
       </c>
       <c r="L111">
-        <f>VLOOKUP(B111,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.0518510474896799E-2</v>
       </c>
       <c r="U111" s="1">
@@ -12577,23 +12566,23 @@
         <v>858076.774212491</v>
       </c>
       <c r="F112">
-        <f>F111*(1+L112)</f>
+        <f t="shared" si="5"/>
         <v>878566.30132038286</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.4671455104487539E-2</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.4802605447123991E-2</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7267553426999824E-2</v>
       </c>
       <c r="L112">
-        <f>VLOOKUP(B112,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.4612949418072402E-2</v>
       </c>
       <c r="U112" s="1">
@@ -12617,23 +12606,23 @@
         <v>834131.23847198905</v>
       </c>
       <c r="F113">
-        <f>F112*(1+L113)</f>
+        <f t="shared" si="5"/>
         <v>854202.91355976416</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.3181740436688081E-2</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.7572497383417494E-2</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7906052768387979E-2</v>
       </c>
       <c r="L113">
-        <f>VLOOKUP(B113,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.7730847090314498E-2</v>
       </c>
       <c r="U113" s="1">
@@ -12657,23 +12646,23 @@
         <v>829978.992662112</v>
       </c>
       <c r="F114">
-        <f>F113*(1+L114)</f>
+        <f t="shared" si="5"/>
         <v>850787.79784946516</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.8616674647412585E-3</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.4126282896251858E-3</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.9779286740098128E-3</v>
       </c>
       <c r="L114">
-        <f>VLOOKUP(B114,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-3.9980145889072904E-3</v>
       </c>
       <c r="U114" s="1">
@@ -12697,23 +12686,23 @@
         <v>838280.17435823497</v>
       </c>
       <c r="F115">
-        <f>F114*(1+L115)</f>
+        <f t="shared" si="5"/>
         <v>860494.05415453122</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.8607395553588191E-3</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6472768091167378E-2</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0001676873166776E-2</v>
       </c>
       <c r="L115">
-        <f>VLOOKUP(B115,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.1408551379792299E-2</v>
       </c>
       <c r="U115" s="1">
@@ -12737,23 +12726,23 @@
         <v>818013.45857657201</v>
       </c>
       <c r="F116">
-        <f>F115*(1+L116)</f>
+        <f t="shared" si="5"/>
         <v>840916.02690211707</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.3568672607074523E-2</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.487812979021331E-2</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.4176541926663853E-2</v>
       </c>
       <c r="L116">
-        <f>VLOOKUP(B116,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.2752077318709998E-2</v>
       </c>
       <c r="U116" s="1">
@@ -12777,23 +12766,23 @@
         <v>816966.82869276695</v>
       </c>
       <c r="F117">
-        <f>F116*(1+L117)</f>
+        <f t="shared" si="5"/>
         <v>840656.7680765976</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-8.1477386310977451E-3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.3513014970177881E-3</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.2794775841784567E-3</v>
       </c>
       <c r="L117">
-        <f>VLOOKUP(B117,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-3.083052495438E-4</v>
       </c>
       <c r="U117" s="1">
@@ -12817,23 +12806,23 @@
         <v>834500.50850036403</v>
       </c>
       <c r="F118">
-        <f>F117*(1+L118)</f>
+        <f t="shared" si="5"/>
         <v>857292.07295209006</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8822113395297047E-2</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9191562726557088E-2</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.1461923779271252E-2</v>
       </c>
       <c r="L118">
-        <f>VLOOKUP(B118,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.9788462434619701E-2</v>
       </c>
       <c r="U118" s="1">
@@ -12857,23 +12846,23 @@
         <v>833212.57450664695</v>
       </c>
       <c r="F119">
-        <f>F118*(1+L119)</f>
+        <f t="shared" si="5"/>
         <v>855033.17002924148</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.1679701705331946E-2</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-6.4532542241368951E-5</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.5433591478950515E-3</v>
       </c>
       <c r="L119">
-        <f>VLOOKUP(B119,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.63492804158334E-3</v>
       </c>
       <c r="U119" s="1">
@@ -12897,23 +12886,23 @@
         <v>838521.531854011</v>
       </c>
       <c r="F120">
-        <f>F119*(1+L120)</f>
+        <f t="shared" si="5"/>
         <v>859929.60746108671</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.4462468006524194E-3</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.1947870858178895E-3</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.3716721396187559E-3</v>
       </c>
       <c r="L120">
-        <f>VLOOKUP(B120,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>5.7266052399789196E-3</v>
       </c>
       <c r="U120" s="1">
@@ -12937,23 +12926,23 @@
         <v>861025.80939644598</v>
       </c>
       <c r="F121">
-        <f>F120*(1+L121)</f>
+        <f t="shared" si="5"/>
         <v>883280.51187123125</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5721591656820317E-2</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8783300068882411E-2</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.6838043732373862E-2</v>
       </c>
       <c r="L121">
-        <f>VLOOKUP(B121,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.7154437069665999E-2</v>
       </c>
       <c r="U121" s="1">
@@ -12977,23 +12966,23 @@
         <v>859319.65053612704</v>
       </c>
       <c r="F122">
-        <f>F121*(1+L122)</f>
+        <f t="shared" si="5"/>
         <v>880848.54649742541</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.3940265534614378E-3</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.8461992138040246E-3</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.9815420649410553E-3</v>
       </c>
       <c r="L122">
-        <f>VLOOKUP(B122,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.75333299118493E-3</v>
       </c>
       <c r="U122" s="1">
@@ -13017,23 +13006,23 @@
         <v>845891.50390650996</v>
       </c>
       <c r="F123">
-        <f>F122*(1+L123)</f>
+        <f t="shared" si="5"/>
         <v>865643.22142102139</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.6777305214360383E-2</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.8809430490460466E-2</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.5626486164070919E-2</v>
       </c>
       <c r="L123">
-        <f>VLOOKUP(B123,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-1.72621333563708E-2</v>
       </c>
       <c r="U123" s="1">
@@ -13057,23 +13046,23 @@
         <v>848141.61134556402</v>
       </c>
       <c r="F124">
-        <f>F123*(1+L124)</f>
+        <f t="shared" si="5"/>
         <v>865818.99946406728</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.3816156169280731E-4</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7792379175858297E-3</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.6600426043559278E-3</v>
       </c>
       <c r="L124">
-        <f>VLOOKUP(B124,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.0306061284375401E-4</v>
       </c>
       <c r="U124" s="1">
@@ -13097,23 +13086,23 @@
         <v>841202.14290862205</v>
       </c>
       <c r="F125">
-        <f>F124*(1+L125)</f>
+        <f t="shared" si="5"/>
         <v>857780.25216927216</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.2776229107834602E-2</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.2951212779329535E-2</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-8.1819690769948661E-3</v>
       </c>
       <c r="L125">
-        <f>VLOOKUP(B125,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-9.2845586661542898E-3</v>
       </c>
       <c r="U125" s="1">
@@ -13137,23 +13126,23 @@
         <v>849998.90558976703</v>
       </c>
       <c r="F126">
-        <f>F125*(1+L126)</f>
+        <f t="shared" si="5"/>
         <v>866081.233716605</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.122237931215353E-2</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9782994355165346E-3</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0457370746499217E-2</v>
       </c>
       <c r="L126">
-        <f>VLOOKUP(B126,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>9.6772821784369308E-3</v>
       </c>
       <c r="U126" s="1">
@@ -13177,23 +13166,23 @@
         <v>846460.86415699695</v>
       </c>
       <c r="F127">
-        <f>F126*(1+L127)</f>
+        <f t="shared" si="5"/>
         <v>864163.15377636498</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.9483349277757975E-3</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.5817848226571414E-3</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.1624070448834649E-3</v>
       </c>
       <c r="L127">
-        <f>VLOOKUP(B127,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.2146651671563901E-3</v>
       </c>
       <c r="U127" s="1">
@@ -13217,23 +13206,23 @@
         <v>848370.36977719399</v>
       </c>
       <c r="F128">
-        <f>F127*(1+L128)</f>
+        <f t="shared" si="5"/>
         <v>865049.19666675304</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.0900128112280063E-3</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6707351491442868E-3</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.2558699416053152E-3</v>
       </c>
       <c r="L128">
-        <f>VLOOKUP(B128,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.0253189881055699E-3</v>
       </c>
       <c r="U128" s="1">
@@ -13257,23 +13246,23 @@
         <v>857851.59263381804</v>
       </c>
       <c r="F129">
-        <f>F128*(1+L129)</f>
+        <f t="shared" si="5"/>
         <v>875846.20195037604</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9122631363951204E-2</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3784838104396568E-2</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.117580622141956E-2</v>
       </c>
       <c r="L129">
-        <f>VLOOKUP(B129,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>1.2481377157769299E-2</v>
       </c>
       <c r="U129" s="1">
@@ -13297,23 +13286,23 @@
         <v>856583.30463843094</v>
       </c>
       <c r="F130">
-        <f>F129*(1+L130)</f>
+        <f t="shared" si="5"/>
         <v>873556.48927509086</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.4017027988491053E-3</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.9449615007560723E-3</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.4784468622284219E-3</v>
       </c>
       <c r="L130">
-        <f>VLOOKUP(B130,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>-2.61428624133591E-3</v>
       </c>
       <c r="U130" s="1">
@@ -13337,23 +13326,23 @@
         <v>852092.11197151302</v>
       </c>
       <c r="F131">
-        <f>F130*(1+L131)</f>
+        <f t="shared" ref="F131:F194" si="10">F130*(1+L131)</f>
         <v>868557.76111265318</v>
       </c>
       <c r="I131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.1774771401125261E-2</v>
       </c>
       <c r="J131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.6454157554333158E-3</v>
       </c>
       <c r="K131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.2431475638130554E-3</v>
       </c>
       <c r="L131">
-        <f>VLOOKUP(B131,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" ref="L131:L194" si="11">VLOOKUP(B131,$U$2:$V$3312,2,FALSE)</f>
         <v>-5.7222723702571501E-3</v>
       </c>
       <c r="U131" s="1">
@@ -13377,23 +13366,23 @@
         <v>846830.13418537099</v>
       </c>
       <c r="F132">
-        <f>F131*(1+L132)</f>
+        <f t="shared" si="10"/>
         <v>865037.46226716379</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I195" si="6">C132/C131-1</f>
+        <f t="shared" ref="I132:I195" si="12">C132/C131-1</f>
         <v>-1.0138258283437618E-2</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J195" si="7">D132/D131-1</f>
+        <f t="shared" ref="J132:J195" si="13">D132/D131-1</f>
         <v>-1.5625914039180011E-2</v>
       </c>
       <c r="K132">
-        <f t="shared" ref="K132:K195" si="8">E132/E131-1</f>
+        <f t="shared" ref="K132:K195" si="14">E132/E131-1</f>
         <v>-6.1753626306517706E-3</v>
       </c>
       <c r="L132">
-        <f>VLOOKUP(B132,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-4.0530394213272904E-3</v>
       </c>
       <c r="U132" s="1">
@@ -13417,23 +13406,23 @@
         <v>841129.96521910897</v>
       </c>
       <c r="F133">
-        <f>F132*(1+L133)</f>
+        <f t="shared" si="10"/>
         <v>860196.18370433501</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.0961266742928197E-3</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.0357431739586085E-3</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-6.7311834288295014E-3</v>
       </c>
       <c r="L133">
-        <f>VLOOKUP(B133,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-5.5966114463301799E-3</v>
       </c>
       <c r="U133" s="1">
@@ -13457,23 +13446,23 @@
         <v>837231.67596915294</v>
       </c>
       <c r="F134">
-        <f>F133*(1+L134)</f>
+        <f t="shared" si="10"/>
         <v>856093.86546828074</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.3878275160232767E-2</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.1875765297759577E-2</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.6345861057756066E-3</v>
       </c>
       <c r="L134">
-        <f>VLOOKUP(B134,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-4.7690495654004799E-3</v>
       </c>
       <c r="U134" s="1">
@@ -13497,23 +13486,23 @@
         <v>855219.61610224401</v>
       </c>
       <c r="F135">
-        <f>F134*(1+L135)</f>
+        <f t="shared" si="10"/>
         <v>872492.4129446845</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.0968834745286768E-2</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0260065462992083E-2</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.1485020991673265E-2</v>
       </c>
       <c r="L135">
-        <f>VLOOKUP(B135,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.91550811632481E-2</v>
       </c>
       <c r="U135" s="1">
@@ -13537,23 +13526,23 @@
         <v>849325.12258729199</v>
       </c>
       <c r="F136">
-        <f>F135*(1+L136)</f>
+        <f t="shared" si="10"/>
         <v>866611.75365758233</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.3659718196241677E-3</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.9103940889735327E-3</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-6.8923740802587785E-3</v>
       </c>
       <c r="L136">
-        <f>VLOOKUP(B136,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-6.7400692543043098E-3</v>
       </c>
       <c r="U136" s="1">
@@ -13577,23 +13566,23 @@
         <v>869946.69421377301</v>
       </c>
       <c r="F137">
-        <f>F136*(1+L137)</f>
+        <f t="shared" si="10"/>
         <v>886478.05140199163</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.5181996844619423E-2</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.8789279141443691E-2</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.4279950136953055E-2</v>
       </c>
       <c r="L137">
-        <f>VLOOKUP(B137,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.29241037414534E-2</v>
       </c>
       <c r="U137" s="1">
@@ -13617,23 +13606,23 @@
         <v>871252.93955919205</v>
       </c>
       <c r="F138">
-        <f>F137*(1+L138)</f>
+        <f t="shared" si="10"/>
         <v>888850.76468347781</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0117846597332614E-2</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.1018540398427579E-3</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5015234313862091E-3</v>
       </c>
       <c r="L138">
-        <f>VLOOKUP(B138,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.6765617916130599E-3</v>
       </c>
       <c r="U138" s="1">
@@ -13657,23 +13646,23 @@
         <v>875682.63170960196</v>
       </c>
       <c r="F139">
-        <f>F138*(1+L139)</f>
+        <f t="shared" si="10"/>
         <v>892144.63168591761</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.7405450672813867E-3</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.3814537327642196E-3</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.0842779969857421E-3</v>
       </c>
       <c r="L139">
-        <f>VLOOKUP(B139,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>3.7057593167652901E-3</v>
       </c>
       <c r="U139" s="1">
@@ -13697,23 +13686,23 @@
         <v>871921.22381756897</v>
       </c>
       <c r="F140">
-        <f>F139*(1+L140)</f>
+        <f t="shared" si="10"/>
         <v>886582.54208682361</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.5768107321914089E-3</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-8.8883714184047058E-3</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.2954008174052039E-3</v>
       </c>
       <c r="L140">
-        <f>VLOOKUP(B140,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-6.23451557241699E-3</v>
       </c>
       <c r="U140" s="1">
@@ -13737,23 +13726,23 @@
         <v>874401.74465006904</v>
       </c>
       <c r="F141">
-        <f>F140*(1+L141)</f>
+        <f t="shared" si="10"/>
         <v>888787.17746650788</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.8086239489281191E-4</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.181596398866505E-3</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.8448909887059948E-3</v>
       </c>
       <c r="L141">
-        <f>VLOOKUP(B141,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.48666680768955E-3</v>
       </c>
       <c r="U141" s="1">
@@ -13777,23 +13766,23 @@
         <v>868156.02552912</v>
       </c>
       <c r="F142">
-        <f>F141*(1+L142)</f>
+        <f t="shared" si="10"/>
         <v>882405.96353315189</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-7.0912405361863717E-3</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.1855411194193533E-2</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.1428484208349019E-3</v>
       </c>
       <c r="L142">
-        <f>VLOOKUP(B142,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-7.1796872132490397E-3</v>
       </c>
       <c r="U142" s="1">
@@ -13817,23 +13806,23 @@
         <v>880074.84698276396</v>
       </c>
       <c r="F143">
-        <f>F142*(1+L143)</f>
+        <f t="shared" si="10"/>
         <v>894809.73458150926</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.9769565754284235E-2</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3386483088128296E-2</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3728893313134316E-2</v>
       </c>
       <c r="L143">
-        <f>VLOOKUP(B143,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.40567624891073E-2</v>
       </c>
       <c r="U143" s="1">
@@ -13857,23 +13846,23 @@
         <v>889150.71096625703</v>
       </c>
       <c r="F144">
-        <f>F143*(1+L144)</f>
+        <f t="shared" si="10"/>
         <v>903563.92250768503</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.606037855886866E-2</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.2904034463260272E-2</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.031260467744155E-2</v>
       </c>
       <c r="L144">
-        <f>VLOOKUP(B144,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>9.7832953619687701E-3</v>
       </c>
       <c r="U144" s="1">
@@ -13897,23 +13886,23 @@
         <v>897774.39667299204</v>
       </c>
       <c r="F145">
-        <f>F144*(1+L145)</f>
+        <f t="shared" si="10"/>
         <v>910341.12300015625</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2010251529201774E-2</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.9586460260660354E-2</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9.6987896431679488E-3</v>
       </c>
       <c r="L145">
-        <f>VLOOKUP(B145,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>7.5005213506781198E-3</v>
       </c>
       <c r="U145" s="1">
@@ -13937,23 +13926,23 @@
         <v>896497.08646641602</v>
       </c>
       <c r="F146">
-        <f>F145*(1+L146)</f>
+        <f t="shared" si="10"/>
         <v>910904.90087716666</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.9999049366461534E-4</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.9988749285473411E-4</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.4227518754260648E-3</v>
       </c>
       <c r="L146">
-        <f>VLOOKUP(B146,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>6.19303976022155E-4</v>
       </c>
       <c r="U146" s="1">
@@ -13977,23 +13966,23 @@
         <v>885502.74803740205</v>
       </c>
       <c r="F147">
-        <f>F146*(1+L147)</f>
+        <f t="shared" si="10"/>
         <v>898717.0782312958</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.58883442896951E-3</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.2176934875616237E-3</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.2263663312447215E-2</v>
       </c>
       <c r="L147">
-        <f>VLOOKUP(B147,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.33799067653872E-2</v>
       </c>
       <c r="U147" s="1">
@@ -14017,23 +14006,23 @@
         <v>896882.53241189301</v>
       </c>
       <c r="F148">
-        <f>F147*(1+L148)</f>
+        <f t="shared" si="10"/>
         <v>909709.21878156881</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2851641744991991E-3</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.6980549717081637E-3</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.2851212940572676E-2</v>
       </c>
       <c r="L148">
-        <f>VLOOKUP(B148,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.2230924299230801E-2</v>
       </c>
       <c r="U148" s="1">
@@ -14057,23 +14046,23 @@
         <v>894540.60128499696</v>
       </c>
       <c r="F149">
-        <f>F148*(1+L149)</f>
+        <f t="shared" si="10"/>
         <v>906482.03604740219</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.2999193643988827E-3</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.144549160386088E-3</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-2.611190476191072E-3</v>
       </c>
       <c r="L149">
-        <f>VLOOKUP(B149,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-3.5474882166073099E-3</v>
       </c>
       <c r="U149" s="1">
@@ -14097,23 +14086,23 @@
         <v>896635.67617201898</v>
       </c>
       <c r="F150">
-        <f>F149*(1+L150)</f>
+        <f t="shared" si="10"/>
         <v>908247.93600184738</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.50313283055781E-4</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.9691905227163851E-4</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.3420679665209221E-3</v>
       </c>
       <c r="L150">
-        <f>VLOOKUP(B150,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.94808047398849E-3</v>
       </c>
       <c r="U150" s="1">
@@ -14137,23 +14126,23 @@
         <v>897430.27138704399</v>
       </c>
       <c r="F151">
-        <f>F150*(1+L151)</f>
+        <f t="shared" si="10"/>
         <v>909347.51506602811</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.2307402431228667E-5</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.8260491677355457E-4</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8.8619629593300608E-4</v>
       </c>
       <c r="L151">
-        <f>VLOOKUP(B151,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.21065957938877E-3</v>
       </c>
       <c r="U151" s="1">
@@ -14177,23 +14166,23 @@
         <v>895841.40127218503</v>
       </c>
       <c r="F152">
-        <f>F151*(1+L152)</f>
+        <f t="shared" si="10"/>
         <v>907175.26168135868</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.5059340736038926E-4</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.3944969441223032E-3</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.7704663699422696E-3</v>
       </c>
       <c r="L152">
-        <f>VLOOKUP(B152,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-2.38880444349342E-3</v>
       </c>
       <c r="U152" s="1">
@@ -14217,23 +14206,23 @@
         <v>910467.63348468195</v>
       </c>
       <c r="F153">
-        <f>F152*(1+L153)</f>
+        <f t="shared" si="10"/>
         <v>922398.72706928127</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8.9896918118486102E-3</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.2487183038637495E-2</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6326809847955426E-2</v>
       </c>
       <c r="L153">
-        <f>VLOOKUP(B153,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.6781173419243602E-2</v>
       </c>
       <c r="U153" s="1">
@@ -14257,23 +14246,23 @@
         <v>911210.01732371305</v>
       </c>
       <c r="F154">
-        <f>F153*(1+L154)</f>
+        <f t="shared" si="10"/>
         <v>925026.67283179623</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.9093324394704485E-3</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.8697516315835383E-3</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8.1538740283360056E-4</v>
       </c>
       <c r="L154">
-        <f>VLOOKUP(B154,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.8490344635065099E-3</v>
       </c>
       <c r="U154" s="1">
@@ -14297,23 +14286,23 @@
         <v>922809.80484797002</v>
       </c>
       <c r="F155">
-        <f>F154*(1+L155)</f>
+        <f t="shared" si="10"/>
         <v>937048.86527819058</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8.6364892975974161E-3</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.2802594502767732E-3</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.2730092189203956E-2</v>
       </c>
       <c r="L155">
-        <f>VLOOKUP(B155,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.29965900438208E-2</v>
       </c>
       <c r="U155" s="1">
@@ -14337,23 +14326,23 @@
         <v>926947.85001775005</v>
       </c>
       <c r="F156">
-        <f>F155*(1+L156)</f>
+        <f t="shared" si="10"/>
         <v>941657.30317937164</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.716136366925582E-3</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.3250275951505213E-3</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.4841798906349872E-3</v>
       </c>
       <c r="L156">
-        <f>VLOOKUP(B156,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>4.9180337034108899E-3</v>
       </c>
       <c r="U156" s="1">
@@ -14377,23 +14366,23 @@
         <v>933496.16022165795</v>
       </c>
       <c r="F157">
-        <f>F156*(1+L157)</f>
+        <f t="shared" si="10"/>
         <v>948617.18846311374</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.2442827077211476E-3</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.883453376868685E-3</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.0643782212587158E-3</v>
       </c>
       <c r="L157">
-        <f>VLOOKUP(B157,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>7.39110211352166E-3</v>
       </c>
       <c r="U157" s="1">
@@ -14417,23 +14406,23 @@
         <v>928803.22237081197</v>
       </c>
       <c r="F158">
-        <f>F157*(1+L158)</f>
+        <f t="shared" si="10"/>
         <v>943360.32096658403</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.3626777106188221E-3</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-5.1779987287292606E-3</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.0272706528665667E-3</v>
       </c>
       <c r="L158">
-        <f>VLOOKUP(B158,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-5.5416110528700904E-3</v>
       </c>
       <c r="U158" s="1">
@@ -14457,23 +14446,23 @@
         <v>929314.87250120705</v>
       </c>
       <c r="F159">
-        <f>F158*(1+L159)</f>
+        <f t="shared" si="10"/>
         <v>944001.1931918069</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.2377431749335273E-3</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.0913244840612428E-4</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.5087032222944643E-4</v>
       </c>
       <c r="L159">
-        <f>VLOOKUP(B159,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>6.7935041466043696E-4</v>
       </c>
       <c r="U159" s="1">
@@ -14497,23 +14486,23 @@
         <v>921325.25071336795</v>
       </c>
       <c r="F160">
-        <f>F159*(1+L160)</f>
+        <f t="shared" si="10"/>
         <v>935419.43459897058</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-8.7252926400033237E-3</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.4517285359301262E-3</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-8.5973247865229752E-3</v>
       </c>
       <c r="L160">
-        <f>VLOOKUP(B160,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-9.0908344764057594E-3</v>
       </c>
       <c r="U160" s="1">
@@ -14537,23 +14526,23 @@
         <v>903746.24630636501</v>
       </c>
       <c r="F161">
-        <f>F160*(1+L161)</f>
+        <f t="shared" si="10"/>
         <v>916950.26130560366</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.6965896972178096E-2</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.9210035253166002E-2</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.9080128753002024E-2</v>
       </c>
       <c r="L161">
-        <f>VLOOKUP(B161,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.9744269372899002E-2</v>
       </c>
       <c r="U161" s="1">
@@ -14577,23 +14566,23 @@
         <v>899536.34376226203</v>
       </c>
       <c r="F162">
-        <f>F161*(1+L162)</f>
+        <f t="shared" si="10"/>
         <v>913827.83083732089</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.971399208308803E-4</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.8433239298495403E-3</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.6582794244611758E-3</v>
       </c>
       <c r="L162">
-        <f>VLOOKUP(B162,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-3.4052342859217598E-3</v>
       </c>
       <c r="U162" s="1">
@@ -14617,23 +14606,23 @@
         <v>901166.53453665006</v>
       </c>
       <c r="F163">
-        <f>F162*(1+L163)</f>
+        <f t="shared" si="10"/>
         <v>915102.04746580881</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.7458685681894863E-5</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.3140485541864866E-3</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8122567094620567E-3</v>
       </c>
       <c r="L163">
-        <f>VLOOKUP(B163,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.3943727532576E-3</v>
       </c>
       <c r="U163" s="1">
@@ -14657,23 +14646,23 @@
         <v>909982.99660198903</v>
       </c>
       <c r="F164">
-        <f>F163*(1+L164)</f>
+        <f t="shared" si="10"/>
         <v>923961.03559355764</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.0729471978644378E-2</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.3823602620679534E-3</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9.7833882278730577E-3</v>
       </c>
       <c r="L164">
-        <f>VLOOKUP(B164,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>9.6808745563208305E-3</v>
       </c>
       <c r="U164" s="1">
@@ -14697,23 +14686,23 @@
         <v>882420.35496261599</v>
       </c>
       <c r="F165">
-        <f>F164*(1+L165)</f>
+        <f t="shared" si="10"/>
         <v>895856.04277123942</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.634019587735914E-2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.3081144851470956E-2</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.0289183141109288E-2</v>
       </c>
       <c r="L165">
-        <f>VLOOKUP(B165,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-3.04179416010367E-2</v>
       </c>
       <c r="U165" s="1">
@@ -14737,23 +14726,23 @@
         <v>877379.76835873094</v>
       </c>
       <c r="F166">
-        <f>F165*(1+L166)</f>
+        <f t="shared" si="10"/>
         <v>890516.50688796479</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-4.5852315370099594E-3</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.9502691228809921E-3</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.7122283904008642E-3</v>
       </c>
       <c r="L166">
-        <f>VLOOKUP(B166,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-5.9602610557354498E-3</v>
       </c>
       <c r="U166" s="1">
@@ -14777,23 +14766,23 @@
         <v>868957.72106419306</v>
       </c>
       <c r="F167">
-        <f>F166*(1+L167)</f>
+        <f t="shared" si="10"/>
         <v>881662.66394826688</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.0879177197605117E-2</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.529325333314187E-3</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-9.5990899246429784E-3</v>
       </c>
       <c r="L167">
-        <f>VLOOKUP(B167,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-9.9423681326683E-3</v>
       </c>
       <c r="U167" s="1">
@@ -14817,23 +14806,23 @@
         <v>861292.31163464801</v>
       </c>
       <c r="F168">
-        <f>F167*(1+L168)</f>
+        <f t="shared" si="10"/>
         <v>873842.0606975524</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-6.4786921168974443E-3</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.5414186213916841E-3</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-8.8213836458664874E-3</v>
       </c>
       <c r="L168">
-        <f>VLOOKUP(B168,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-8.8702897043323008E-3</v>
       </c>
       <c r="U168" s="1">
@@ -14857,23 +14846,23 @@
         <v>865282.74488763604</v>
       </c>
       <c r="F169">
-        <f>F168*(1+L169)</f>
+        <f t="shared" si="10"/>
         <v>877523.1188042236</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.0234774664466002E-3</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.4856485993881581E-3</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.6330765979027966E-3</v>
       </c>
       <c r="L169">
-        <f>VLOOKUP(B169,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>4.2124981987395104E-3</v>
       </c>
       <c r="U169" s="1">
@@ -14897,23 +14886,23 @@
         <v>856044.53448860301</v>
       </c>
       <c r="F170">
-        <f>F169*(1+L170)</f>
+        <f t="shared" si="10"/>
         <v>868207.5804099798</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-7.0016414120179782E-3</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.1723356304482513E-2</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.0676522158352686E-2</v>
       </c>
       <c r="L170">
-        <f>VLOOKUP(B170,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.061571848607E-2</v>
       </c>
       <c r="U170" s="1">
@@ -14937,23 +14926,23 @@
         <v>851312.03771177505</v>
       </c>
       <c r="F171">
-        <f>F170*(1+L171)</f>
+        <f t="shared" si="10"/>
         <v>862804.53131128335</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-6.2746752437741193E-3</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.8410915590999544E-3</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.5283301115346406E-3</v>
       </c>
       <c r="L171">
-        <f>VLOOKUP(B171,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-6.22322267233029E-3</v>
       </c>
       <c r="U171" s="1">
@@ -14977,23 +14966,23 @@
         <v>863228.88388841203</v>
       </c>
       <c r="F172">
-        <f>F171*(1+L172)</f>
+        <f t="shared" si="10"/>
         <v>875263.345879948</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.2143432004241728E-2</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.5411851166238444E-2</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.3998211758720069E-2</v>
       </c>
       <c r="L172">
-        <f>VLOOKUP(B172,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.44399039603209E-2</v>
       </c>
       <c r="U172" s="1">
@@ -15017,23 +15006,23 @@
         <v>868510.827988073</v>
       </c>
       <c r="F173">
-        <f>F172*(1+L173)</f>
+        <f t="shared" si="10"/>
         <v>879771.71218631987</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.5651484370851119E-3</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.4053454106081098E-3</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.118822247777933E-3</v>
       </c>
       <c r="L173">
-        <f>VLOOKUP(B173,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>5.1508683958876901E-3</v>
       </c>
       <c r="U173" s="1">
@@ -15057,23 +15046,23 @@
         <v>878820.81301333802</v>
       </c>
       <c r="F174">
-        <f>F173*(1+L174)</f>
+        <f t="shared" si="10"/>
         <v>891914.18156797998</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.4464762394723607E-2</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.3302490092663932E-2</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1870876784747075E-2</v>
       </c>
       <c r="L174">
-        <f>VLOOKUP(B174,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.38018411065808E-2</v>
       </c>
       <c r="U174" s="1">
@@ -15097,23 +15086,23 @@
         <v>885097.38916427095</v>
       </c>
       <c r="F175">
-        <f>F174*(1+L175)</f>
+        <f t="shared" si="10"/>
         <v>899478.09029187274</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.086522961629484E-3</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0661713208114376E-2</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.1420431309672239E-3</v>
       </c>
       <c r="L175">
-        <f>VLOOKUP(B175,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>8.4805342040817702E-3</v>
       </c>
       <c r="U175" s="1">
@@ -15137,23 +15126,23 @@
         <v>850209.67298488296</v>
       </c>
       <c r="F176">
-        <f>F175*(1+L176)</f>
+        <f t="shared" si="10"/>
         <v>864078.66769017279</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.3997015787532003E-2</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.6442227790067339E-2</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.9416810631799248E-2</v>
       </c>
       <c r="L176">
-        <f>VLOOKUP(B176,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-3.9355514029489197E-2</v>
       </c>
       <c r="U176" s="1">
@@ -15177,23 +15166,23 @@
         <v>851032.93640942604</v>
       </c>
       <c r="F177">
-        <f>F176*(1+L177)</f>
+        <f t="shared" si="10"/>
         <v>865901.55937942618</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.4259598304303704E-3</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.8009370747493794E-3</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9.6830634924760517E-4</v>
       </c>
       <c r="L177">
-        <f>VLOOKUP(B177,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.1096362604648899E-3</v>
       </c>
       <c r="U177" s="1">
@@ -15217,23 +15206,23 @@
         <v>846296.86277964094</v>
       </c>
       <c r="F178">
-        <f>F177*(1+L178)</f>
+        <f t="shared" si="10"/>
         <v>858491.36389270844</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-5.2654943944588917E-3</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.7360201979754795E-3</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.5650885261467886E-3</v>
       </c>
       <c r="L178">
-        <f>VLOOKUP(B178,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-8.5577805080158508E-3</v>
       </c>
       <c r="U178" s="1">
@@ -15257,23 +15246,23 @@
         <v>842486.55343524599</v>
       </c>
       <c r="F179">
-        <f>F178*(1+L179)</f>
+        <f t="shared" si="10"/>
         <v>855221.1166781059</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.120836007133537E-3</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.9696747034824202E-3</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.5023318790052835E-3</v>
       </c>
       <c r="L179">
-        <f>VLOOKUP(B179,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-3.8092954130302102E-3</v>
       </c>
       <c r="U179" s="1">
@@ -15297,23 +15286,23 @@
         <v>847878.36564512795</v>
       </c>
       <c r="F180">
-        <f>F179*(1+L180)</f>
+        <f t="shared" si="10"/>
         <v>860268.79912779026</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.7402136830506691E-3</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.970833366435004E-3</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.3998792478014987E-3</v>
       </c>
       <c r="L180">
-        <f>VLOOKUP(B180,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>5.90219576112762E-3</v>
       </c>
       <c r="U180" s="1">
@@ -15337,23 +15326,23 @@
         <v>839310.68171080295</v>
       </c>
       <c r="F181">
-        <f>F180*(1+L181)</f>
+        <f t="shared" si="10"/>
         <v>851094.00473914109</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.5373800080221045E-2</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.2421921846691775E-2</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.0104850272722898E-2</v>
       </c>
       <c r="L181">
-        <f>VLOOKUP(B181,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.0665032136410599E-2</v>
       </c>
       <c r="U181" s="1">
@@ -15377,23 +15366,23 @@
         <v>825030.22974606999</v>
       </c>
       <c r="F182">
-        <f>F181*(1+L182)</f>
+        <f t="shared" si="10"/>
         <v>836202.58941326011</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.902053675119475E-2</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.694753178048114E-2</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.7014500441748792E-2</v>
       </c>
       <c r="L182">
-        <f>VLOOKUP(B182,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.7496792649179999E-2</v>
       </c>
       <c r="U182" s="1">
@@ -15417,23 +15406,23 @@
         <v>822102.81583744998</v>
       </c>
       <c r="F183">
-        <f>F182*(1+L183)</f>
+        <f t="shared" si="10"/>
         <v>832889.15779174771</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.0731839157403389E-2</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.286768984838373E-3</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.5482504798897141E-3</v>
       </c>
       <c r="L183">
-        <f>VLOOKUP(B183,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-3.9624747201958098E-3</v>
       </c>
       <c r="U183" s="1">
@@ -15457,23 +15446,23 @@
         <v>808811.33702229604</v>
       </c>
       <c r="F184">
-        <f>F183*(1+L184)</f>
+        <f t="shared" si="10"/>
         <v>818673.72078120674</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.2829186358863662E-2</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.5078750465761237E-2</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.6167660004441586E-2</v>
       </c>
       <c r="L184">
-        <f>VLOOKUP(B184,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.7067621636750002E-2</v>
       </c>
       <c r="U184" s="1">
@@ -15497,23 +15486,23 @@
         <v>799802.20537008403</v>
       </c>
       <c r="F185">
-        <f>F184*(1+L185)</f>
+        <f t="shared" si="10"/>
         <v>809786.43721575092</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.4586960209588495E-2</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.1333371925179581E-2</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.1138730677762054E-2</v>
       </c>
       <c r="L185">
-        <f>VLOOKUP(B185,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.08557088616149E-2</v>
       </c>
       <c r="U185" s="1">
@@ -15537,23 +15526,23 @@
         <v>796363.087945204</v>
       </c>
       <c r="F186">
-        <f>F185*(1+L186)</f>
+        <f t="shared" si="10"/>
         <v>805851.17041839892</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.2523475971127018E-2</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.0115250659547019E-3</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.2999599173256797E-3</v>
       </c>
       <c r="L186">
-        <f>VLOOKUP(B186,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-4.85963535136798E-3</v>
       </c>
       <c r="U186" s="1">
@@ -15577,23 +15566,23 @@
         <v>811362.38058249303</v>
       </c>
       <c r="F187">
-        <f>F186*(1+L187)</f>
+        <f t="shared" si="10"/>
         <v>820521.08473634126</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.9379928928315193E-2</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.6720393110203569E-2</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8834741168115343E-2</v>
       </c>
       <c r="L187">
-        <f>VLOOKUP(B187,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.8204247702867601E-2</v>
       </c>
       <c r="U187" s="1">
@@ -15617,23 +15606,23 @@
         <v>798840.03192474705</v>
       </c>
       <c r="F188">
-        <f>F187*(1+L188)</f>
+        <f t="shared" si="10"/>
         <v>805966.49637191603</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.3116869913297302E-2</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.680577024881269E-2</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.5433730916580068E-2</v>
       </c>
       <c r="L188">
-        <f>VLOOKUP(B188,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.7738225909334299E-2</v>
       </c>
       <c r="U188" s="1">
@@ -15657,23 +15646,23 @@
         <v>785170.52779935405</v>
       </c>
       <c r="F189">
-        <f>F188*(1+L189)</f>
+        <f t="shared" si="10"/>
         <v>789993.63404668798</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.2189676892836907E-2</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-2.381031157571234E-2</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.7111691426451525E-2</v>
       </c>
       <c r="L189">
-        <f>VLOOKUP(B189,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.9818270855091899E-2</v>
       </c>
       <c r="U189" s="1">
@@ -15697,23 +15686,23 @@
         <v>806091.11365583702</v>
       </c>
       <c r="F190">
-        <f>F189*(1+L190)</f>
+        <f t="shared" si="10"/>
         <v>812120.32672028977</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.7534359100967132E-2</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3683428741682944E-2</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.664463975121234E-2</v>
       </c>
       <c r="L190">
-        <f>VLOOKUP(B190,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.8008697437546901E-2</v>
       </c>
       <c r="U190" s="1">
@@ -15737,23 +15726,23 @@
         <v>828653.04793249897</v>
       </c>
       <c r="F191">
-        <f>F190*(1+L191)</f>
+        <f t="shared" si="10"/>
         <v>835127.01832336141</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.3047849316330424E-2</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.2602942797254286E-2</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.7989310258411892E-2</v>
       </c>
       <c r="L191">
-        <f>VLOOKUP(B191,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.8329166068263599E-2</v>
       </c>
       <c r="U191" s="1">
@@ -15777,23 +15766,23 @@
         <v>827492.70615619095</v>
       </c>
       <c r="F192">
-        <f>F191*(1+L192)</f>
+        <f t="shared" si="10"/>
         <v>833642.34243011742</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-4.0750549608784548E-3</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.7251325432684501E-3</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.4002745530268257E-3</v>
       </c>
       <c r="L192">
-        <f>VLOOKUP(B192,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.77778452938174E-3</v>
       </c>
       <c r="U192" s="1">
@@ -15817,23 +15806,23 @@
         <v>818009.88172361604</v>
       </c>
       <c r="F193">
-        <f>F192*(1+L193)</f>
+        <f t="shared" si="10"/>
         <v>823053.23530024698</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-9.7495356627450569E-3</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.1658996055824211E-2</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.1459707574491884E-2</v>
       </c>
       <c r="L193">
-        <f>VLOOKUP(B193,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-1.27022184345899E-2</v>
       </c>
       <c r="U193" s="1">
@@ -15857,23 +15846,23 @@
         <v>800785.62638969999</v>
       </c>
       <c r="F194">
-        <f>F193*(1+L194)</f>
+        <f t="shared" si="10"/>
         <v>804216.31641581724</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.4008066228287541E-2</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-2.1507106038914481E-2</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-2.1056292495664097E-2</v>
       </c>
       <c r="L194">
-        <f>VLOOKUP(B194,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>-2.28866348815919E-2</v>
       </c>
       <c r="U194" s="1">
@@ -15897,23 +15886,23 @@
         <v>798218.78061345697</v>
       </c>
       <c r="F195">
-        <f>F194*(1+L195)</f>
+        <f t="shared" ref="F195:F253" si="15">F194*(1+L195)</f>
         <v>802776.65229692194</v>
       </c>
       <c r="I195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-7.2407741174762563E-4</v>
       </c>
       <c r="J195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-5.3954108944260781E-3</v>
       </c>
       <c r="K195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.2054094025332214E-3</v>
       </c>
       <c r="L195">
-        <f>VLOOKUP(B195,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" ref="L195:L253" si="16">VLOOKUP(B195,$U$2:$V$3312,2,FALSE)</f>
         <v>-1.79014537445788E-3</v>
       </c>
       <c r="U195" s="1">
@@ -15937,23 +15926,23 @@
         <v>799211.22384426196</v>
       </c>
       <c r="F196">
-        <f>F195*(1+L196)</f>
+        <f t="shared" si="15"/>
         <v>803358.44717987522</v>
       </c>
       <c r="I196">
-        <f>C196/C195-1</f>
+        <f t="shared" ref="I196:I227" si="17">C196/C195-1</f>
         <v>2.3982005037681553E-4</v>
       </c>
       <c r="J196">
-        <f>D196/D195-1</f>
+        <f t="shared" ref="J196:J227" si="18">D196/D195-1</f>
         <v>-6.7088900991112421E-3</v>
       </c>
       <c r="K196">
-        <f>E196/E195-1</f>
+        <f t="shared" ref="K196:K227" si="19">E196/E195-1</f>
         <v>1.2433223257941606E-3</v>
       </c>
       <c r="L196">
-        <f>VLOOKUP(B196,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>7.2472820589461896E-4</v>
       </c>
       <c r="U196" s="1">
@@ -15977,23 +15966,23 @@
         <v>798436.594942756</v>
       </c>
       <c r="F197">
-        <f>F196*(1+L197)</f>
+        <f t="shared" si="15"/>
         <v>802448.47533766553</v>
       </c>
       <c r="I197">
-        <f>C197/C196-1</f>
+        <f t="shared" si="17"/>
         <v>1.3852567825893836E-3</v>
       </c>
       <c r="J197">
-        <f>D197/D196-1</f>
+        <f t="shared" si="18"/>
         <v>6.6359432868057233E-4</v>
       </c>
       <c r="K197">
-        <f>E197/E196-1</f>
+        <f t="shared" si="19"/>
         <v>-9.69241770379492E-4</v>
       </c>
       <c r="L197">
-        <f>VLOOKUP(B197,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.1327096209719099E-3</v>
       </c>
       <c r="U197" s="1">
@@ -16017,23 +16006,23 @@
         <v>821065.26155069901</v>
       </c>
       <c r="F198">
-        <f>F197*(1+L198)</f>
+        <f t="shared" si="15"/>
         <v>826307.59230721043</v>
       </c>
       <c r="I198">
-        <f>C198/C197-1</f>
+        <f t="shared" si="17"/>
         <v>3.1300279166333489E-2</v>
       </c>
       <c r="J198">
-        <f>D198/D197-1</f>
+        <f t="shared" si="18"/>
         <v>3.3853145811166385E-2</v>
       </c>
       <c r="K198">
-        <f>E198/E197-1</f>
+        <f t="shared" si="19"/>
         <v>2.8341219266841522E-2</v>
       </c>
       <c r="L198">
-        <f>VLOOKUP(B198,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.9732895884069199E-2</v>
       </c>
       <c r="U198" s="1">
@@ -16057,23 +16046,23 @@
         <v>810025.49175054894</v>
       </c>
       <c r="F199">
-        <f>F198*(1+L199)</f>
+        <f t="shared" si="15"/>
         <v>814883.90271562093</v>
       </c>
       <c r="I199">
-        <f>C199/C198-1</f>
+        <f t="shared" si="17"/>
         <v>-2.003962861676134E-2</v>
       </c>
       <c r="J199">
-        <f>D199/D198-1</f>
+        <f t="shared" si="18"/>
         <v>-2.2235664826074641E-2</v>
       </c>
       <c r="K199">
-        <f>E199/E198-1</f>
+        <f t="shared" si="19"/>
         <v>-1.3445666644451459E-2</v>
       </c>
       <c r="L199">
-        <f>VLOOKUP(B199,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.3824984422196001E-2</v>
       </c>
       <c r="U199" s="1">
@@ -16097,23 +16086,23 @@
         <v>825086.01797501999</v>
       </c>
       <c r="F200">
-        <f>F199*(1+L200)</f>
+        <f t="shared" si="15"/>
         <v>830264.71790423559</v>
       </c>
       <c r="I200">
-        <f>C200/C199-1</f>
+        <f t="shared" si="17"/>
         <v>1.7441357985336081E-2</v>
       </c>
       <c r="J200">
-        <f>D200/D199-1</f>
+        <f t="shared" si="18"/>
         <v>1.9984593029997999E-2</v>
       </c>
       <c r="K200">
-        <f>E200/E199-1</f>
+        <f t="shared" si="19"/>
         <v>1.8592657117399769E-2</v>
       </c>
       <c r="L200">
-        <f>VLOOKUP(B200,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.8874854611016002E-2</v>
       </c>
       <c r="U200" s="1">
@@ -16137,23 +16126,23 @@
         <v>834324.22837405303</v>
       </c>
       <c r="F201">
-        <f>F200*(1+L201)</f>
+        <f t="shared" si="15"/>
         <v>838986.11117500218</v>
       </c>
       <c r="I201">
-        <f>C201/C200-1</f>
+        <f t="shared" si="17"/>
         <v>1.2379916551728654E-2</v>
       </c>
       <c r="J201">
-        <f>D201/D200-1</f>
+        <f t="shared" si="18"/>
         <v>1.3745649512937108E-2</v>
       </c>
       <c r="K201">
-        <f>E201/E200-1</f>
+        <f t="shared" si="19"/>
         <v>1.1196663375421245E-2</v>
       </c>
       <c r="L201">
-        <f>VLOOKUP(B201,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.0504352506729601E-2</v>
       </c>
       <c r="U201" s="1">
@@ -16177,23 +16166,23 @@
         <v>831591.13901412301</v>
       </c>
       <c r="F202">
-        <f>F201*(1+L202)</f>
+        <f t="shared" si="15"/>
         <v>837271.05326034699</v>
       </c>
       <c r="I202">
-        <f>C202/C201-1</f>
+        <f t="shared" si="17"/>
         <v>8.3204404185148739E-3</v>
       </c>
       <c r="J202">
-        <f>D202/D201-1</f>
+        <f t="shared" si="18"/>
         <v>2.4584330413033317E-3</v>
       </c>
       <c r="K202">
-        <f>E202/E201-1</f>
+        <f t="shared" si="19"/>
         <v>-3.2758120488197706E-3</v>
       </c>
       <c r="L202">
-        <f>VLOOKUP(B202,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-2.04420298716658E-3</v>
       </c>
       <c r="U202" s="1">
@@ -16217,23 +16206,23 @@
         <v>829125.08575104503</v>
       </c>
       <c r="F203">
-        <f>F202*(1+L203)</f>
+        <f t="shared" si="15"/>
         <v>835501.20106223272</v>
       </c>
       <c r="I203">
-        <f>C203/C202-1</f>
+        <f t="shared" si="17"/>
         <v>-1.0913171073729022E-2</v>
       </c>
       <c r="J203">
-        <f>D203/D202-1</f>
+        <f t="shared" si="18"/>
         <v>-1.5837203374539088E-3</v>
       </c>
       <c r="K203">
-        <f>E203/E202-1</f>
+        <f t="shared" si="19"/>
         <v>-2.965463612324637E-3</v>
       </c>
       <c r="L203">
-        <f>VLOOKUP(B203,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-2.11383421321263E-3</v>
       </c>
       <c r="U203" s="1">
@@ -16257,23 +16246,23 @@
         <v>849597.12356959202</v>
       </c>
       <c r="F204">
-        <f>F203*(1+L204)</f>
+        <f t="shared" si="15"/>
         <v>854442.29896353104</v>
       </c>
       <c r="I204">
-        <f>C204/C203-1</f>
+        <f t="shared" si="17"/>
         <v>3.4323334379268822E-2</v>
       </c>
       <c r="J204">
-        <f>D204/D203-1</f>
+        <f t="shared" si="18"/>
         <v>3.2670759861003429E-2</v>
       </c>
       <c r="K204">
-        <f>E204/E203-1</f>
+        <f t="shared" si="19"/>
         <v>2.4691133063478476E-2</v>
       </c>
       <c r="L204">
-        <f>VLOOKUP(B204,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.26703419183805E-2</v>
       </c>
       <c r="U204" s="1">
@@ -16297,23 +16286,23 @@
         <v>860996.82087173697</v>
       </c>
       <c r="F205">
-        <f>F204*(1+L205)</f>
+        <f t="shared" si="15"/>
         <v>865226.06776893721</v>
       </c>
       <c r="I205">
-        <f>C205/C204-1</f>
+        <f t="shared" si="17"/>
         <v>9.8634394122747437E-3</v>
       </c>
       <c r="J205">
-        <f>D205/D204-1</f>
+        <f t="shared" si="18"/>
         <v>1.1619034060422528E-2</v>
       </c>
       <c r="K205">
-        <f>E205/E204-1</f>
+        <f t="shared" si="19"/>
         <v>1.3417768240844508E-2</v>
       </c>
       <c r="L205">
-        <f>VLOOKUP(B205,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.26208274315155E-2</v>
       </c>
       <c r="U205" s="1">
@@ -16337,23 +16326,23 @@
         <v>870211.541490159</v>
       </c>
       <c r="F206">
-        <f>F205*(1+L206)</f>
+        <f t="shared" si="15"/>
         <v>876689.8572790802</v>
       </c>
       <c r="I206">
-        <f>C206/C205-1</f>
+        <f t="shared" si="17"/>
         <v>9.5658412320973607E-3</v>
       </c>
       <c r="J206">
-        <f>D206/D205-1</f>
+        <f t="shared" si="18"/>
         <v>1.1958875505365452E-2</v>
       </c>
       <c r="K206">
-        <f>E206/E205-1</f>
+        <f t="shared" si="19"/>
         <v>1.0702386344577208E-2</v>
       </c>
       <c r="L206">
-        <f>VLOOKUP(B206,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.32494730997916E-2</v>
       </c>
       <c r="U206" s="1">
@@ -16377,23 +16366,23 @@
         <v>870276.29854443402</v>
       </c>
       <c r="F207">
-        <f>F206*(1+L207)</f>
+        <f t="shared" si="15"/>
         <v>876809.25453151064</v>
       </c>
       <c r="I207">
-        <f>C207/C206-1</f>
+        <f t="shared" si="17"/>
         <v>2.7472946494893069E-3</v>
       </c>
       <c r="J207">
-        <f>D207/D206-1</f>
+        <f t="shared" si="18"/>
         <v>3.2094389207815155E-3</v>
       </c>
       <c r="K207">
-        <f>E207/E206-1</f>
+        <f t="shared" si="19"/>
         <v>7.4415301553054647E-5</v>
       </c>
       <c r="L207">
-        <f>VLOOKUP(B207,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.3619098183835301E-4</v>
       </c>
       <c r="U207" s="1">
@@ -16417,23 +16406,23 @@
         <v>875583.65431584604</v>
       </c>
       <c r="F208">
-        <f>F207*(1+L208)</f>
+        <f t="shared" si="15"/>
         <v>880426.48555471865</v>
       </c>
       <c r="I208">
-        <f>C208/C207-1</f>
+        <f t="shared" si="17"/>
         <v>1.5499520354975482E-2</v>
       </c>
       <c r="J208">
-        <f>D208/D207-1</f>
+        <f t="shared" si="18"/>
         <v>2.3590888053015568E-4</v>
       </c>
       <c r="K208">
-        <f>E208/E207-1</f>
+        <f t="shared" si="19"/>
         <v>6.0984721522219232E-3</v>
       </c>
       <c r="L208">
-        <f>VLOOKUP(B208,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>4.1254480430189802E-3</v>
       </c>
       <c r="U208" s="1">
@@ -16457,23 +16446,23 @@
         <v>898230.09841684205</v>
       </c>
       <c r="F209">
-        <f>F208*(1+L209)</f>
+        <f t="shared" si="15"/>
         <v>906238.59376586636</v>
       </c>
       <c r="I209">
-        <f>C209/C208-1</f>
+        <f t="shared" si="17"/>
         <v>2.8025692943490998E-2</v>
       </c>
       <c r="J209">
-        <f>D209/D208-1</f>
+        <f t="shared" si="18"/>
         <v>3.0029674421631514E-2</v>
       </c>
       <c r="K209">
-        <f>E209/E208-1</f>
+        <f t="shared" si="19"/>
         <v>2.5864397981128606E-2</v>
       </c>
       <c r="L209">
-        <f>VLOOKUP(B209,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.93177325246919E-2</v>
       </c>
       <c r="U209" s="1">
@@ -16497,23 +16486,23 @@
         <v>894708.12612944399</v>
       </c>
       <c r="F210">
-        <f>F209*(1+L210)</f>
+        <f t="shared" si="15"/>
         <v>901469.43492889567</v>
       </c>
       <c r="I210">
-        <f>C210/C209-1</f>
+        <f t="shared" si="17"/>
         <v>-1.9666916405095547E-3</v>
       </c>
       <c r="J210">
-        <f>D210/D209-1</f>
+        <f t="shared" si="18"/>
         <v>-1.124973865275658E-3</v>
       </c>
       <c r="K210">
-        <f>E210/E209-1</f>
+        <f t="shared" si="19"/>
         <v>-3.921013439213028E-3</v>
       </c>
       <c r="L210">
-        <f>VLOOKUP(B210,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-5.2625863318759196E-3</v>
       </c>
       <c r="U210" s="1">
@@ -16537,23 +16526,23 @@
         <v>892528.27448876295</v>
       </c>
       <c r="F211">
-        <f>F210*(1+L211)</f>
+        <f t="shared" si="15"/>
         <v>899481.04392771423</v>
       </c>
       <c r="I211">
-        <f>C211/C210-1</f>
+        <f t="shared" si="17"/>
         <v>2.5466931580839791E-3</v>
       </c>
       <c r="J211">
-        <f>D211/D210-1</f>
+        <f t="shared" si="18"/>
         <v>2.2369002198256993E-3</v>
       </c>
       <c r="K211">
-        <f>E211/E210-1</f>
+        <f t="shared" si="19"/>
         <v>-2.4363829689478811E-3</v>
       </c>
       <c r="L211">
-        <f>VLOOKUP(B211,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-2.2057220401912698E-3</v>
       </c>
       <c r="U211" s="1">
@@ -16577,23 +16566,23 @@
         <v>878712.81340839295</v>
       </c>
       <c r="F212">
-        <f>F211*(1+L212)</f>
+        <f t="shared" si="15"/>
         <v>884431.29972107126</v>
       </c>
       <c r="I212">
-        <f>C212/C211-1</f>
+        <f t="shared" si="17"/>
         <v>-1.3972187109522305E-2</v>
       </c>
       <c r="J212">
-        <f>D212/D211-1</f>
+        <f t="shared" si="18"/>
         <v>-1.2531173095076009E-2</v>
       </c>
       <c r="K212">
-        <f>E212/E211-1</f>
+        <f t="shared" si="19"/>
         <v>-1.5479017836475206E-2</v>
       </c>
       <c r="L212">
-        <f>VLOOKUP(B212,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.67315857385122E-2</v>
       </c>
       <c r="U212" s="1">
@@ -16617,23 +16606,23 @@
         <v>874708.17951530905</v>
       </c>
       <c r="F213">
-        <f>F212*(1+L213)</f>
+        <f t="shared" si="15"/>
         <v>879791.13118415629</v>
       </c>
       <c r="I213">
-        <f>C213/C212-1</f>
+        <f t="shared" si="17"/>
         <v>1.970709826096817E-3</v>
       </c>
       <c r="J213">
-        <f>D213/D212-1</f>
+        <f t="shared" si="18"/>
         <v>-7.8953290498964268E-3</v>
       </c>
       <c r="K213">
-        <f>E213/E212-1</f>
+        <f t="shared" si="19"/>
         <v>-4.5573864771022432E-3</v>
       </c>
       <c r="L213">
-        <f>VLOOKUP(B213,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-5.2464996867234203E-3</v>
       </c>
       <c r="U213" s="1">
@@ -16657,23 +16646,23 @@
         <v>885695.47101014003</v>
       </c>
       <c r="F214">
-        <f>F213*(1+L214)</f>
+        <f t="shared" si="15"/>
         <v>893040.05700781639</v>
       </c>
       <c r="I214">
-        <f>C214/C213-1</f>
+        <f t="shared" si="17"/>
         <v>2.4209497099533239E-2</v>
       </c>
       <c r="J214">
-        <f>D214/D213-1</f>
+        <f t="shared" si="18"/>
         <v>2.12705441382528E-2</v>
       </c>
       <c r="K214">
-        <f>E214/E213-1</f>
+        <f t="shared" si="19"/>
         <v>1.2561093804929646E-2</v>
       </c>
       <c r="L214">
-        <f>VLOOKUP(B214,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.50591718352829E-2</v>
       </c>
       <c r="U214" s="1">
@@ -16697,23 +16686,23 @@
         <v>897278.86907383497</v>
       </c>
       <c r="F215">
-        <f>F214*(1+L215)</f>
+        <f t="shared" si="15"/>
         <v>903419.08414315025</v>
       </c>
       <c r="I215">
-        <f>C215/C214-1</f>
+        <f t="shared" si="17"/>
         <v>6.528634232005448E-3</v>
       </c>
       <c r="J215">
-        <f>D215/D214-1</f>
+        <f t="shared" si="18"/>
         <v>8.3022207906746637E-3</v>
       </c>
       <c r="K215">
-        <f>E215/E214-1</f>
+        <f t="shared" si="19"/>
         <v>1.3078307886664531E-2</v>
       </c>
       <c r="L215">
-        <f>VLOOKUP(B215,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.16221294374065E-2</v>
       </c>
       <c r="U215" s="1">
@@ -16737,23 +16726,23 @@
         <v>906403.58112382505</v>
       </c>
       <c r="F216">
-        <f>F215*(1+L216)</f>
+        <f t="shared" si="15"/>
         <v>910932.5838034834</v>
       </c>
       <c r="I216">
-        <f>C216/C215-1</f>
+        <f t="shared" si="17"/>
         <v>3.1350071197890905E-3</v>
       </c>
       <c r="J216">
-        <f>D216/D215-1</f>
+        <f t="shared" si="18"/>
         <v>4.2129022661210325E-3</v>
       </c>
       <c r="K216">
-        <f>E216/E215-1</f>
+        <f t="shared" si="19"/>
         <v>1.0169315654795952E-2</v>
       </c>
       <c r="L216">
-        <f>VLOOKUP(B216,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>8.3167378154948707E-3</v>
       </c>
       <c r="U216" s="1">
@@ -16777,23 +16766,23 @@
         <v>888721.80892664997</v>
       </c>
       <c r="F217">
-        <f>F216*(1+L217)</f>
+        <f t="shared" si="15"/>
         <v>891636.35942389211</v>
       </c>
       <c r="I217">
-        <f>C217/C216-1</f>
+        <f t="shared" si="17"/>
         <v>-1.7470685475044601E-2</v>
       </c>
       <c r="J217">
-        <f>D217/D216-1</f>
+        <f t="shared" si="18"/>
         <v>-1.4797604251240104E-2</v>
       </c>
       <c r="K217">
-        <f>E217/E216-1</f>
+        <f t="shared" si="19"/>
         <v>-1.9507615112521859E-2</v>
       </c>
       <c r="L217">
-        <f>VLOOKUP(B217,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-2.11829335372135E-2</v>
       </c>
       <c r="U217" s="1">
@@ -16817,23 +16806,23 @@
         <v>921561.21623677702</v>
       </c>
       <c r="F218">
-        <f>F217*(1+L218)</f>
+        <f t="shared" si="15"/>
         <v>928409.63934953255</v>
       </c>
       <c r="I218">
-        <f>C218/C217-1</f>
+        <f t="shared" si="17"/>
         <v>3.7228764312395191E-2</v>
       </c>
       <c r="J218">
-        <f>D218/D217-1</f>
+        <f t="shared" si="18"/>
         <v>4.5947181954959948E-2</v>
       </c>
       <c r="K218">
-        <f>E218/E217-1</f>
+        <f t="shared" si="19"/>
         <v>3.6951278769437046E-2</v>
       </c>
       <c r="L218">
-        <f>VLOOKUP(B218,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>4.1242463406719498E-2</v>
       </c>
       <c r="U218" s="1">
@@ -16857,23 +16846,23 @@
         <v>922449.23671559396</v>
       </c>
       <c r="F219">
-        <f>F218*(1+L219)</f>
+        <f t="shared" si="15"/>
         <v>934553.86420468579</v>
       </c>
       <c r="I219">
-        <f>C219/C218-1</f>
+        <f t="shared" si="17"/>
         <v>1.7612658661914082E-2</v>
       </c>
       <c r="J219">
-        <f>D219/D218-1</f>
+        <f t="shared" si="18"/>
         <v>1.8011651067636913E-2</v>
       </c>
       <c r="K219">
-        <f>E219/E218-1</f>
+        <f t="shared" si="19"/>
         <v>9.6360443904441873E-4</v>
       </c>
       <c r="L219">
-        <f>VLOOKUP(B219,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>6.6180106223994702E-3</v>
       </c>
       <c r="U219" s="1">
@@ -16897,23 +16886,23 @@
         <v>916677.47730433405</v>
       </c>
       <c r="F220">
-        <f>F219*(1+L220)</f>
+        <f t="shared" si="15"/>
         <v>930328.24228364765</v>
       </c>
       <c r="I220">
-        <f>C220/C219-1</f>
+        <f t="shared" si="17"/>
         <v>-3.6128306458249604E-3</v>
       </c>
       <c r="J220">
-        <f>D220/D219-1</f>
+        <f t="shared" si="18"/>
         <v>-4.5898737829253022E-3</v>
       </c>
       <c r="K220">
-        <f>E220/E219-1</f>
+        <f t="shared" si="19"/>
         <v>-6.2569940778642863E-3</v>
       </c>
       <c r="L220">
-        <f>VLOOKUP(B220,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-4.5215391887915698E-3</v>
       </c>
       <c r="U220" s="1">
@@ -16937,23 +16926,23 @@
         <v>918214.24281492899</v>
       </c>
       <c r="F221">
-        <f>F220*(1+L221)</f>
+        <f t="shared" si="15"/>
         <v>934040.58283623972</v>
       </c>
       <c r="I221">
-        <f>C221/C220-1</f>
+        <f t="shared" si="17"/>
         <v>-7.5758602492881355E-4</v>
       </c>
       <c r="J221">
-        <f>D221/D220-1</f>
+        <f t="shared" si="18"/>
         <v>2.4444140194288533E-3</v>
       </c>
       <c r="K221">
-        <f>E221/E220-1</f>
+        <f t="shared" si="19"/>
         <v>1.6764516949996366E-3</v>
       </c>
       <c r="L221">
-        <f>VLOOKUP(B221,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>3.9903556442396097E-3</v>
       </c>
       <c r="U221" s="1">
@@ -16977,23 +16966,23 @@
         <v>917145.67134059896</v>
       </c>
       <c r="F222">
-        <f>F221*(1+L222)</f>
+        <f t="shared" si="15"/>
         <v>930188.55107331299</v>
       </c>
       <c r="I222">
-        <f>C222/C221-1</f>
+        <f t="shared" si="17"/>
         <v>-4.3296292297994032E-3</v>
       </c>
       <c r="J222">
-        <f>D222/D221-1</f>
+        <f t="shared" si="18"/>
         <v>-3.5628251046361248E-3</v>
       </c>
       <c r="K222">
-        <f>E222/E221-1</f>
+        <f t="shared" si="19"/>
         <v>-1.1637496180130213E-3</v>
       </c>
       <c r="L222">
-        <f>VLOOKUP(B222,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-4.1240518171382703E-3</v>
       </c>
       <c r="U222" s="1">
@@ -17017,23 +17006,23 @@
         <v>916940.456075444</v>
       </c>
       <c r="F223">
-        <f>F222*(1+L223)</f>
+        <f t="shared" si="15"/>
         <v>931795.78963071422</v>
       </c>
       <c r="I223">
-        <f>C223/C222-1</f>
+        <f t="shared" si="17"/>
         <v>4.9502176168481071E-4</v>
       </c>
       <c r="J223">
-        <f>D223/D222-1</f>
+        <f t="shared" si="18"/>
         <v>1.380755275079526E-3</v>
       </c>
       <c r="K223">
-        <f>E223/E222-1</f>
+        <f t="shared" si="19"/>
         <v>-2.2375427543042115E-4</v>
       </c>
       <c r="L223">
-        <f>VLOOKUP(B223,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.7278631902603099E-3</v>
       </c>
       <c r="U223" s="1">
@@ -17057,23 +17046,23 @@
         <v>922389.97840541694</v>
       </c>
       <c r="F224">
-        <f>F223*(1+L224)</f>
+        <f t="shared" si="15"/>
         <v>936835.67303978372</v>
       </c>
       <c r="I224">
-        <f>C224/C223-1</f>
+        <f t="shared" si="17"/>
         <v>3.0142764082259355E-3</v>
       </c>
       <c r="J224">
-        <f>D224/D223-1</f>
+        <f t="shared" si="18"/>
         <v>2.7945408430560814E-3</v>
       </c>
       <c r="K224">
-        <f>E224/E223-1</f>
+        <f t="shared" si="19"/>
         <v>5.94315835217607E-3</v>
       </c>
       <c r="L224">
-        <f>VLOOKUP(B224,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>5.4087853424052701E-3</v>
       </c>
       <c r="U224" s="1">
@@ -17097,23 +17086,23 @@
         <v>921148.75704359706</v>
       </c>
       <c r="F225">
-        <f>F224*(1+L225)</f>
+        <f t="shared" si="15"/>
         <v>937623.36361540412</v>
       </c>
       <c r="I225">
-        <f>C225/C224-1</f>
+        <f t="shared" si="17"/>
         <v>2.6922118885552848E-4</v>
       </c>
       <c r="J225">
-        <f>D225/D224-1</f>
+        <f t="shared" si="18"/>
         <v>-2.6767708681643132E-3</v>
       </c>
       <c r="K225">
-        <f>E225/E224-1</f>
+        <f t="shared" si="19"/>
         <v>-1.345657900539643E-3</v>
       </c>
       <c r="L225">
-        <f>VLOOKUP(B225,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>8.4079908386117304E-4</v>
       </c>
       <c r="U225" s="1">
@@ -17137,23 +17126,23 @@
         <v>932022.60357525095</v>
       </c>
       <c r="F226">
-        <f>F225*(1+L226)</f>
+        <f t="shared" si="15"/>
         <v>949451.47883450228</v>
       </c>
       <c r="I226">
-        <f>C226/C225-1</f>
+        <f t="shared" si="17"/>
         <v>1.5666600456701874E-2</v>
       </c>
       <c r="J226">
-        <f>D226/D225-1</f>
+        <f t="shared" si="18"/>
         <v>1.3778503276966392E-2</v>
       </c>
       <c r="K226">
-        <f>E226/E225-1</f>
+        <f t="shared" si="19"/>
         <v>1.1804658529370737E-2</v>
       </c>
       <c r="L226">
-        <f>VLOOKUP(B226,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.26149962533887E-2</v>
       </c>
       <c r="U226" s="1">
@@ -17177,23 +17166,23 @@
         <v>934645.45112390595</v>
       </c>
       <c r="F227">
-        <f>F226*(1+L227)</f>
+        <f t="shared" si="15"/>
         <v>952137.73751727305</v>
       </c>
       <c r="I227">
-        <f>C227/C226-1</f>
+        <f t="shared" si="17"/>
         <v>2.4726468264670842E-3</v>
       </c>
       <c r="J227">
-        <f>D227/D226-1</f>
+        <f t="shared" si="18"/>
         <v>3.5845186119751737E-3</v>
       </c>
       <c r="K227">
-        <f>E227/E226-1</f>
+        <f t="shared" si="19"/>
         <v>2.814145857185979E-3</v>
       </c>
       <c r="L227">
-        <f>VLOOKUP(B227,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.8292743153849899E-3</v>
       </c>
       <c r="U227" s="1">
@@ -17217,23 +17206,23 @@
         <v>938826.73884435603</v>
       </c>
       <c r="F228">
-        <f>F227*(1+L228)</f>
+        <f t="shared" si="15"/>
         <v>954305.8776397882</v>
       </c>
       <c r="I228">
-        <f>C228/C227-1</f>
+        <f t="shared" ref="I228:I252" si="20">C228/C227-1</f>
         <v>-7.6477121825191396E-4</v>
       </c>
       <c r="J228">
-        <f>D228/D227-1</f>
+        <f t="shared" ref="J228:J252" si="21">D228/D227-1</f>
         <v>-1.1068353385992324E-3</v>
       </c>
       <c r="K228">
-        <f>E228/E227-1</f>
+        <f t="shared" ref="K228:K252" si="22">E228/E227-1</f>
         <v>4.4736618740530698E-3</v>
       </c>
       <c r="L228">
-        <f>VLOOKUP(B228,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.2771286517522301E-3</v>
       </c>
       <c r="U228" s="1">
@@ -17257,23 +17246,23 @@
         <v>925226.36941417004</v>
       </c>
       <c r="F229">
-        <f>F228*(1+L229)</f>
+        <f t="shared" si="15"/>
         <v>940520.13967593503</v>
       </c>
       <c r="I229">
-        <f>C229/C228-1</f>
+        <f t="shared" si="20"/>
         <v>-1.5158894797259626E-2</v>
       </c>
       <c r="J229">
-        <f>D229/D228-1</f>
+        <f t="shared" si="21"/>
         <v>-1.6402626492397654E-2</v>
       </c>
       <c r="K229">
-        <f>E229/E228-1</f>
+        <f t="shared" si="22"/>
         <v>-1.4486559518881337E-2</v>
       </c>
       <c r="L229">
-        <f>VLOOKUP(B229,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.44458273671628E-2</v>
       </c>
       <c r="U229" s="1">
@@ -17297,23 +17286,23 @@
         <v>925310.29199398798</v>
       </c>
       <c r="F230">
-        <f>F229*(1+L230)</f>
+        <f t="shared" si="15"/>
         <v>941875.63777372555</v>
       </c>
       <c r="I230">
-        <f>C230/C229-1</f>
+        <f t="shared" si="20"/>
         <v>5.5286420031532835E-3</v>
       </c>
       <c r="J230">
-        <f>D230/D229-1</f>
+        <f t="shared" si="21"/>
         <v>9.6387828602972903E-4</v>
       </c>
       <c r="K230">
-        <f>E230/E229-1</f>
+        <f t="shared" si="22"/>
         <v>9.0704915674866271E-5</v>
       </c>
       <c r="L230">
-        <f>VLOOKUP(B230,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.44122176719952E-3</v>
       </c>
       <c r="U230" s="1">
@@ -17337,23 +17326,23 @@
         <v>945461.64092133299</v>
       </c>
       <c r="F231">
-        <f>F230*(1+L231)</f>
+        <f t="shared" si="15"/>
         <v>963272.16117828491</v>
       </c>
       <c r="I231">
-        <f>C231/C230-1</f>
+        <f t="shared" si="20"/>
         <v>1.8339117369311708E-2</v>
       </c>
       <c r="J231">
-        <f>D231/D230-1</f>
+        <f t="shared" si="21"/>
         <v>2.1107555151042456E-2</v>
       </c>
       <c r="K231">
-        <f>E231/E230-1</f>
+        <f t="shared" si="22"/>
         <v>2.1777936657248365E-2</v>
       </c>
       <c r="L231">
-        <f>VLOOKUP(B231,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.2716930501709798E-2</v>
       </c>
       <c r="U231" s="1">
@@ -17377,23 +17366,23 @@
         <v>940138.21600454801</v>
       </c>
       <c r="F232">
-        <f>F231*(1+L232)</f>
+        <f t="shared" si="15"/>
         <v>958548.8889920566</v>
       </c>
       <c r="I232">
-        <f>C232/C231-1</f>
+        <f t="shared" si="20"/>
         <v>-1.3942527431599627E-3</v>
       </c>
       <c r="J232">
-        <f>D232/D231-1</f>
+        <f t="shared" si="21"/>
         <v>-1.6647213053465615E-3</v>
       </c>
       <c r="K232">
-        <f>E232/E231-1</f>
+        <f t="shared" si="22"/>
         <v>-5.6305033291433881E-3</v>
       </c>
       <c r="L232">
-        <f>VLOOKUP(B232,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-4.9033620783255601E-3</v>
       </c>
       <c r="U232" s="1">
@@ -17417,23 +17406,23 @@
         <v>941091.26046696596</v>
       </c>
       <c r="F233">
-        <f>F232*(1+L233)</f>
+        <f t="shared" si="15"/>
         <v>959772.72827963077</v>
       </c>
       <c r="I233">
-        <f>C233/C232-1</f>
+        <f t="shared" si="20"/>
         <v>3.4476504832925414E-4</v>
       </c>
       <c r="J233">
-        <f>D233/D232-1</f>
+        <f t="shared" si="21"/>
         <v>-2.7197515581259823E-3</v>
       </c>
       <c r="K233">
-        <f>E233/E232-1</f>
+        <f t="shared" si="22"/>
         <v>1.0137280308295527E-3</v>
       </c>
       <c r="L233">
-        <f>VLOOKUP(B233,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.2767625121981999E-3</v>
       </c>
       <c r="U233" s="1">
@@ -17457,23 +17446,23 @@
         <v>927895.23557847505</v>
       </c>
       <c r="F234">
-        <f>F233*(1+L234)</f>
+        <f t="shared" si="15"/>
         <v>945318.62975363212</v>
       </c>
       <c r="I234">
-        <f>C234/C233-1</f>
+        <f t="shared" si="20"/>
         <v>-1.7122646723072066E-2</v>
       </c>
       <c r="J234">
-        <f>D234/D233-1</f>
+        <f t="shared" si="21"/>
         <v>-1.689836117327792E-2</v>
       </c>
       <c r="K234">
-        <f>E234/E233-1</f>
+        <f t="shared" si="22"/>
         <v>-1.4022045940521366E-2</v>
       </c>
       <c r="L234">
-        <f>VLOOKUP(B234,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.5059917936934199E-2</v>
       </c>
       <c r="U234" s="1">
@@ -17497,23 +17486,23 @@
         <v>918307.66807872197</v>
       </c>
       <c r="F235">
-        <f>F234*(1+L235)</f>
+        <f t="shared" si="15"/>
         <v>934383.38602729375</v>
       </c>
       <c r="I235">
-        <f>C235/C234-1</f>
+        <f t="shared" si="20"/>
         <v>-1.3678934103242502E-2</v>
       </c>
       <c r="J235">
-        <f>D235/D234-1</f>
+        <f t="shared" si="21"/>
         <v>-1.5978242583938318E-2</v>
       </c>
       <c r="K235">
-        <f>E235/E234-1</f>
+        <f t="shared" si="22"/>
         <v>-1.0332596970148211E-2</v>
       </c>
       <c r="L235">
-        <f>VLOOKUP(B235,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.1567786122218199E-2</v>
       </c>
       <c r="U235" s="1">
@@ -17537,23 +17526,23 @@
         <v>918350.91062939202</v>
       </c>
       <c r="F236">
-        <f>F235*(1+L236)</f>
+        <f t="shared" si="15"/>
         <v>933927.59340820624</v>
       </c>
       <c r="I236">
-        <f>C236/C235-1</f>
+        <f t="shared" si="20"/>
         <v>-8.6443039255690302E-4</v>
       </c>
       <c r="J236">
-        <f>D236/D235-1</f>
+        <f t="shared" si="21"/>
         <v>-4.4253835580769785E-3</v>
       </c>
       <c r="K236">
-        <f>E236/E235-1</f>
+        <f t="shared" si="22"/>
         <v>4.7089392992250012E-5</v>
       </c>
       <c r="L236">
-        <f>VLOOKUP(B236,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-4.8780043171086198E-4</v>
       </c>
       <c r="U236" s="1">
@@ -17577,23 +17566,23 @@
         <v>923368.22099612595</v>
       </c>
       <c r="F237">
-        <f>F236*(1+L237)</f>
+        <f t="shared" si="15"/>
         <v>939439.58138404239</v>
       </c>
       <c r="I237">
-        <f>C237/C236-1</f>
+        <f t="shared" si="20"/>
         <v>7.0956505789916413E-3</v>
       </c>
       <c r="J237">
-        <f>D237/D236-1</f>
+        <f t="shared" si="21"/>
         <v>4.2647313315460345E-3</v>
       </c>
       <c r="K237">
-        <f>E237/E236-1</f>
+        <f t="shared" si="22"/>
         <v>5.4633912904766824E-3</v>
       </c>
       <c r="L237">
-        <f>VLOOKUP(B237,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>5.9019435925661001E-3</v>
       </c>
       <c r="U237" s="1">
@@ -17617,23 +17606,23 @@
         <v>915030.95045524801</v>
       </c>
       <c r="F238">
-        <f>F237*(1+L238)</f>
+        <f t="shared" si="15"/>
         <v>931987.99627584137</v>
       </c>
       <c r="I238">
-        <f>C238/C237-1</f>
+        <f t="shared" si="20"/>
         <v>-1.1991224991445337E-2</v>
       </c>
       <c r="J238">
-        <f>D238/D237-1</f>
+        <f t="shared" si="21"/>
         <v>-5.5859013034720295E-3</v>
       </c>
       <c r="K238">
-        <f>E238/E237-1</f>
+        <f t="shared" si="22"/>
         <v>-9.0291937184969751E-3</v>
       </c>
       <c r="L238">
-        <f>VLOOKUP(B238,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-7.93194714791862E-3</v>
       </c>
       <c r="U238" s="1">
@@ -17657,23 +17646,23 @@
         <v>929478.87387856306</v>
       </c>
       <c r="F239">
-        <f>F238*(1+L239)</f>
+        <f t="shared" si="15"/>
         <v>946734.84097375988</v>
       </c>
       <c r="I239">
-        <f>C239/C238-1</f>
+        <f t="shared" si="20"/>
         <v>1.6269314651511602E-2</v>
       </c>
       <c r="J239">
-        <f>D239/D238-1</f>
+        <f t="shared" si="21"/>
         <v>1.4215346148069852E-2</v>
       </c>
       <c r="K239">
-        <f>E239/E238-1</f>
+        <f t="shared" si="22"/>
         <v>1.5789546152648493E-2</v>
       </c>
       <c r="L239">
-        <f>VLOOKUP(B239,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.5822998533077601E-2</v>
       </c>
       <c r="U239" s="1">
@@ -17697,23 +17686,23 @@
         <v>932310.673702923</v>
       </c>
       <c r="F240">
-        <f>F239*(1+L240)</f>
+        <f t="shared" si="15"/>
         <v>950411.53014899744</v>
       </c>
       <c r="I240">
-        <f>C240/C239-1</f>
+        <f t="shared" si="20"/>
         <v>8.7794148371325154E-3</v>
       </c>
       <c r="J240">
-        <f>D240/D239-1</f>
+        <f t="shared" si="21"/>
         <v>9.9887735352317542E-3</v>
       </c>
       <c r="K240">
-        <f>E240/E239-1</f>
+        <f t="shared" si="22"/>
         <v>3.046653241878694E-3</v>
       </c>
       <c r="L240">
-        <f>VLOOKUP(B240,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>3.8835469194899398E-3</v>
       </c>
       <c r="U240" s="1">
@@ -17737,23 +17726,23 @@
         <v>928421.40666415705</v>
       </c>
       <c r="F241">
-        <f>F240*(1+L241)</f>
+        <f t="shared" si="15"/>
         <v>945797.25274033402</v>
       </c>
       <c r="I241">
-        <f>C241/C240-1</f>
+        <f t="shared" si="20"/>
         <v>-7.1833353028568636E-3</v>
       </c>
       <c r="J241">
-        <f>D241/D240-1</f>
+        <f t="shared" si="21"/>
         <v>-1.2539496129920891E-2</v>
       </c>
       <c r="K241">
-        <f>E241/E240-1</f>
+        <f t="shared" si="22"/>
         <v>-4.1716427243277954E-3</v>
       </c>
       <c r="L241">
-        <f>VLOOKUP(B241,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-4.8550309653125198E-3</v>
       </c>
       <c r="U241" s="1">
@@ -17777,23 +17766,23 @@
         <v>907534.93437542499</v>
       </c>
       <c r="F242">
-        <f>F241*(1+L242)</f>
+        <f t="shared" si="15"/>
         <v>924202.35500598687</v>
       </c>
       <c r="I242">
-        <f>C242/C241-1</f>
+        <f t="shared" si="20"/>
         <v>-2.010001272511619E-2</v>
       </c>
       <c r="J242">
-        <f>D242/D241-1</f>
+        <f t="shared" si="21"/>
         <v>-2.9184501254808648E-2</v>
       </c>
       <c r="K242">
-        <f>E242/E241-1</f>
+        <f t="shared" si="22"/>
         <v>-2.2496758625781488E-2</v>
       </c>
       <c r="L242">
-        <f>VLOOKUP(B242,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-2.2832480927364202E-2</v>
       </c>
       <c r="U242" s="1">
@@ -17817,23 +17806,23 @@
         <v>899833.48948698805</v>
       </c>
       <c r="F243">
-        <f>F242*(1+L243)</f>
+        <f t="shared" si="15"/>
         <v>915650.73661485093</v>
       </c>
       <c r="I243">
-        <f>C243/C242-1</f>
+        <f t="shared" si="20"/>
         <v>-6.2636142089164126E-3</v>
       </c>
       <c r="J243">
-        <f>D243/D242-1</f>
+        <f t="shared" si="21"/>
         <v>-1.025608607868822E-2</v>
       </c>
       <c r="K243">
-        <f>E243/E242-1</f>
+        <f t="shared" si="22"/>
         <v>-8.4861139739343949E-3</v>
       </c>
       <c r="L243">
-        <f>VLOOKUP(B243,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-9.2529718679202292E-3</v>
       </c>
       <c r="U243" s="1">
@@ -17857,23 +17846,23 @@
         <v>895380.254170103</v>
       </c>
       <c r="F244">
-        <f>F243*(1+L244)</f>
+        <f t="shared" si="15"/>
         <v>911042.38123280101</v>
       </c>
       <c r="I244">
-        <f>C244/C243-1</f>
+        <f t="shared" si="20"/>
         <v>-3.5632199086698124E-3</v>
       </c>
       <c r="J244">
-        <f>D244/D243-1</f>
+        <f t="shared" si="21"/>
         <v>-6.4995027787082549E-3</v>
       </c>
       <c r="K244">
-        <f>E244/E243-1</f>
+        <f t="shared" si="22"/>
         <v>-4.9489548554410012E-3</v>
       </c>
       <c r="L244">
-        <f>VLOOKUP(B244,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-5.0328746516243202E-3</v>
       </c>
       <c r="U244" s="1">
@@ -17897,23 +17886,23 @@
         <v>897900.38731445</v>
       </c>
       <c r="F245">
-        <f>F244*(1+L245)</f>
+        <f t="shared" si="15"/>
         <v>913876.39149305783</v>
       </c>
       <c r="I245">
-        <f>C245/C244-1</f>
+        <f t="shared" si="20"/>
         <v>7.0724919007880693E-3</v>
       </c>
       <c r="J245">
-        <f>D245/D244-1</f>
+        <f t="shared" si="21"/>
         <v>4.3291882932883219E-3</v>
       </c>
       <c r="K245">
-        <f>E245/E244-1</f>
+        <f t="shared" si="22"/>
         <v>2.8145953996749906E-3</v>
       </c>
       <c r="L245">
-        <f>VLOOKUP(B245,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>3.11073372505672E-3</v>
       </c>
       <c r="U245" s="1">
@@ -17937,23 +17926,23 @@
         <v>912298.12802464201</v>
       </c>
       <c r="F246">
-        <f>F245*(1+L246)</f>
+        <f t="shared" si="15"/>
         <v>928782.95275195548</v>
       </c>
       <c r="I246">
-        <f>C246/C245-1</f>
+        <f t="shared" si="20"/>
         <v>2.6366335587841183E-2</v>
       </c>
       <c r="J246">
-        <f>D246/D245-1</f>
+        <f t="shared" si="21"/>
         <v>2.2439396655564714E-2</v>
       </c>
       <c r="K246">
-        <f>E246/E245-1</f>
+        <f t="shared" si="22"/>
         <v>1.6034897538305559E-2</v>
       </c>
       <c r="L246">
-        <f>VLOOKUP(B246,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.6311353917944998E-2</v>
       </c>
       <c r="U246" s="1">
@@ -17977,23 +17966,23 @@
         <v>902758.92811860202</v>
       </c>
       <c r="F247">
-        <f>F246*(1+L247)</f>
+        <f t="shared" si="15"/>
         <v>919483.25127504149</v>
       </c>
       <c r="I247">
-        <f>C247/C246-1</f>
+        <f t="shared" si="20"/>
         <v>-1.1428227230586008E-2</v>
       </c>
       <c r="J247">
-        <f>D247/D246-1</f>
+        <f t="shared" si="21"/>
         <v>-1.180249072963413E-2</v>
       </c>
       <c r="K247">
-        <f>E247/E246-1</f>
+        <f t="shared" si="22"/>
         <v>-1.0456230932639032E-2</v>
       </c>
       <c r="L247">
-        <f>VLOOKUP(B247,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.00127822645315E-2</v>
       </c>
       <c r="U247" s="1">
@@ -18017,23 +18006,23 @@
         <v>907581.70039318595</v>
       </c>
       <c r="F248">
-        <f>F247*(1+L248)</f>
+        <f t="shared" si="15"/>
         <v>924085.86605276249</v>
       </c>
       <c r="I248">
-        <f>C248/C247-1</f>
+        <f t="shared" si="20"/>
         <v>8.1035975207606192E-3</v>
       </c>
       <c r="J248">
-        <f>D248/D247-1</f>
+        <f t="shared" si="21"/>
         <v>3.6972447903800276E-3</v>
       </c>
       <c r="K248">
-        <f>E248/E247-1</f>
+        <f t="shared" si="22"/>
         <v>5.3422592946654746E-3</v>
       </c>
       <c r="L248">
-        <f>VLOOKUP(B248,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>5.0056537422934304E-3</v>
       </c>
       <c r="U248" s="1">
@@ -18057,23 +18046,23 @@
         <v>908610.23246874905</v>
       </c>
       <c r="F249">
-        <f>F248*(1+L249)</f>
+        <f t="shared" si="15"/>
         <v>925401.13490083185</v>
       </c>
       <c r="I249">
-        <f>C249/C248-1</f>
+        <f t="shared" si="20"/>
         <v>4.738036214035013E-3</v>
       </c>
       <c r="J249">
-        <f>D249/D248-1</f>
+        <f t="shared" si="21"/>
         <v>-1.5298099258498343E-3</v>
       </c>
       <c r="K249">
-        <f>E249/E248-1</f>
+        <f t="shared" si="22"/>
         <v>1.1332666525971646E-3</v>
       </c>
       <c r="L249">
-        <f>VLOOKUP(B249,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.4233188672039801E-3</v>
       </c>
       <c r="U249" s="1">
@@ -18097,23 +18086,23 @@
         <v>898610.312547546</v>
       </c>
       <c r="F250">
-        <f>F249*(1+L250)</f>
+        <f t="shared" si="15"/>
         <v>913887.66096930299</v>
       </c>
       <c r="I250">
-        <f>C250/C249-1</f>
+        <f t="shared" si="20"/>
         <v>-1.3470455264525394E-2</v>
       </c>
       <c r="J250">
-        <f>D250/D249-1</f>
+        <f t="shared" si="21"/>
         <v>-1.2983754587061802E-2</v>
       </c>
       <c r="K250">
-        <f>E250/E249-1</f>
+        <f t="shared" si="22"/>
         <v>-1.1005731130754093E-2</v>
       </c>
       <c r="L250">
-        <f>VLOOKUP(B250,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.2441603427212899E-2</v>
       </c>
       <c r="U250" s="1">
@@ -18137,23 +18126,23 @@
         <v>908042.84749526798</v>
       </c>
       <c r="F251">
-        <f>F250*(1+L251)</f>
+        <f t="shared" si="15"/>
         <v>924760.88520570344</v>
       </c>
       <c r="I251">
-        <f>C251/C250-1</f>
+        <f t="shared" si="20"/>
         <v>9.1724287735879262E-3</v>
       </c>
       <c r="J251">
-        <f>D251/D250-1</f>
+        <f t="shared" si="21"/>
         <v>1.0821855354420595E-2</v>
       </c>
       <c r="K251">
-        <f>E251/E250-1</f>
+        <f t="shared" si="22"/>
         <v>1.0496802469338373E-2</v>
       </c>
       <c r="L251">
-        <f>VLOOKUP(B251,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1.18977689499254E-2</v>
       </c>
       <c r="U251" s="1">
@@ -18177,23 +18166,23 @@
         <v>906032.44259017496</v>
       </c>
       <c r="F252">
-        <f>F251*(1+L252)</f>
+        <f t="shared" si="15"/>
         <v>923535.30966738763</v>
       </c>
       <c r="I252">
-        <f>C252/C251-1</f>
+        <f t="shared" si="20"/>
         <v>-2.8222451635419032E-3</v>
       </c>
       <c r="J252">
-        <f>D252/D251-1</f>
+        <f t="shared" si="21"/>
         <v>-1.1442643212705716E-3</v>
       </c>
       <c r="K252">
-        <f>E252/E251-1</f>
+        <f t="shared" si="22"/>
         <v>-2.2139978423247886E-3</v>
       </c>
       <c r="L252">
-        <f>VLOOKUP(B252,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>-1.3252891184332199E-3</v>
       </c>
       <c r="U252" s="1">
@@ -18214,7 +18203,7 @@
         <v>852413.49684294802</v>
       </c>
       <c r="F253">
-        <f>F252*(1+L253)</f>
+        <f t="shared" si="15"/>
         <v>925605.44640123751</v>
       </c>
       <c r="I253">
@@ -18226,7 +18215,7 @@
         <v>-2.4584459463633523E-3</v>
       </c>
       <c r="L253">
-        <f>VLOOKUP(B253,$U$2:$V$3312,2,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>2.2415350146119798E-3</v>
       </c>
       <c r="U253" s="1">
